--- a/reconstruction-tools-assessment/supplementary material/S14_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S14_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EAE88E-D698-4DEF-8CD4-A962EE723919}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S14 Table" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="858">
   <si>
     <t>ID in manuallly-curated model</t>
   </si>
@@ -173,9 +174,6 @@
     <t>PFK</t>
   </si>
   <si>
-    <t>_6PFRUCTPHOS-RXN</t>
-  </si>
-  <si>
     <t>1 atp_c + 1 f6p_c -&gt; 1 adp_c + 1 fdp_c + 1 h_c</t>
   </si>
   <si>
@@ -251,27 +249,12 @@
     <t>AEPPT</t>
   </si>
   <si>
-    <t>_2.6.1.37-RXN</t>
-  </si>
-  <si>
     <t>1 2aeppn_c + 1 pyr_c -&gt; 1 ala__L_c + 1 Pald_c</t>
   </si>
   <si>
     <t>1 2aeppn_c + 1 pyr_c -&gt; 1 Pald_c + 1 ala__L_c</t>
   </si>
   <si>
-    <t>G1PTMT</t>
-  </si>
-  <si>
-    <t>DTDPGLUCOSEPP-RXN</t>
-  </si>
-  <si>
-    <t>1 dttp_c + 1 g1p_c + 1 h_c -&gt; 1 dtdpglc_c + 1 ppi_c</t>
-  </si>
-  <si>
-    <t>1 g1p_c + 1 dttp_c + 1 h_c -&gt; 1 dtdpglc_c + 1 ppi_c</t>
-  </si>
-  <si>
     <t>ADPDS</t>
   </si>
   <si>
@@ -287,9 +270,6 @@
     <t>PGAMT</t>
   </si>
   <si>
-    <t>_5.4.2.10-RXN-CPD-13469//GLUCOSAMINE-1P.26.</t>
-  </si>
-  <si>
     <t>1 gam1p_c &lt;=&gt; 1 gam6p_c</t>
   </si>
   <si>
@@ -416,24 +396,12 @@
     <t>TKT1</t>
   </si>
   <si>
-    <t>_1TRANSKETO-RXN-D-SEDOHEPTULOSE-7-P/GAP//CPD-16551/XYLULOSE-5-PHOSPHATE.56.</t>
-  </si>
-  <si>
     <t>1 r5p_c + 1 xu5p__D_c &lt;=&gt; 1 g3p_c + 1 s7p_c</t>
   </si>
   <si>
     <t>1 s7p_c + 1 g3p_c &lt;=&gt; 1 xu5p__D_c + 1 r5p_c</t>
   </si>
   <si>
-    <t>TDPGDH_1</t>
-  </si>
-  <si>
-    <t>DTDPGLUCDEHYDRAT-RXN</t>
-  </si>
-  <si>
-    <t>1 dtdpglc_c -&gt; 1 dtdp4d6dg_c + 1 h2o_c</t>
-  </si>
-  <si>
     <t>UDCPDP</t>
   </si>
   <si>
@@ -731,12 +699,6 @@
     <t>1 pyr_c + 1 2aeppn_c &lt;=&gt; 1 ala__L_c + 1 Pald_c</t>
   </si>
   <si>
-    <t>rxn01675</t>
-  </si>
-  <si>
-    <t>1 g1p_c + 1 dttp_c &lt;=&gt; 1 ppi_c + 1 dtdpglc_c</t>
-  </si>
-  <si>
     <t>CYSTGL</t>
   </si>
   <si>
@@ -773,12 +735,6 @@
     <t>1 g3p_c + 1 s7p_c &lt;=&gt; 1 r5p_c + 1 xu5p__D_c</t>
   </si>
   <si>
-    <t>rxn01997</t>
-  </si>
-  <si>
-    <t>1 dtdpglc_c -&gt; 1 h2o_c + 1 dtdp4d6dg_c</t>
-  </si>
-  <si>
     <t>UNAGAMAMT</t>
   </si>
   <si>
@@ -965,9 +921,6 @@
     <t>R04152</t>
   </si>
   <si>
-    <t>R02328</t>
-  </si>
-  <si>
     <t>R02733</t>
   </si>
   <si>
@@ -1097,12 +1050,6 @@
     <t>1 atp_c + 1 fpram_c &lt;=&gt; 1 adp_c + 1 pi_c + 1 air_c</t>
   </si>
   <si>
-    <t>R06513</t>
-  </si>
-  <si>
-    <t>1 dtdpglc_c &lt;=&gt; 1 h2o_c + 1 dtdp4d6dg_c</t>
-  </si>
-  <si>
     <t>HPPK</t>
   </si>
   <si>
@@ -1178,9 +1125,6 @@
     <t>2.6.1.37-RXN</t>
   </si>
   <si>
-    <t>1 2aeppn_c + 1 pyr_c &lt;=&gt; 1 Pald_c + 1 ala__L_c</t>
-  </si>
-  <si>
     <t>1TRANSKETO-RXN</t>
   </si>
   <si>
@@ -1301,24 +1245,9 @@
     <t>1 gmhep7p_c + 1 atp_c -&gt; 1 gmhep17bp_c + 1 adp_c + 1 h_c</t>
   </si>
   <si>
-    <t>34HPPDIO</t>
-  </si>
-  <si>
-    <t>_4-HYDROXYPHENYLPYRUVATE-DIOXYGENASE-RXN</t>
-  </si>
-  <si>
-    <t>1 34hpp_c + 1 o2_c -&gt; 1 25dhpac_c + 1 co2_c</t>
-  </si>
-  <si>
-    <t>MGCCOAH</t>
-  </si>
-  <si>
     <t>METHYLGLUTACONYL-COA-HYDRATASE-RXN</t>
   </si>
   <si>
-    <t>1 h2o_c + 1 mgccoa_c -&gt; 1 hmgcoa_c</t>
-  </si>
-  <si>
     <t>ICL</t>
   </si>
   <si>
@@ -1334,54 +1263,12 @@
     <t>1 atp_c + 1 ser__L_c + 1 trnaser_c -&gt; 1 amp_c + 1 ppi_c + 1 sertrna_c</t>
   </si>
   <si>
-    <t>METTA</t>
-  </si>
-  <si>
-    <t>RXN-14147</t>
-  </si>
-  <si>
-    <t>1 akg_c + 1 met__L_c &lt;=&gt; 1 glu__L_c + 1 kmba_c</t>
-  </si>
-  <si>
-    <t>1 met__L_c + 1 akg_c &lt;=&gt; 1 kmba_c + 1 glu__L_c</t>
-  </si>
-  <si>
-    <t>BALATA2</t>
-  </si>
-  <si>
-    <t>RXN-2901</t>
-  </si>
-  <si>
-    <t>1 akg_c + 1 ala_B_c &lt;=&gt; 1 glu__L_c + 1 malsa_c</t>
-  </si>
-  <si>
-    <t>1 ala_B_c + 1 akg_c &lt;=&gt; 1 malsa_c + 1 glu__L_c</t>
-  </si>
-  <si>
-    <t>3OACOAL</t>
-  </si>
-  <si>
-    <t>RXN-3641</t>
-  </si>
-  <si>
-    <t>1 3oadpcoa_c + 1 coa_c -&gt; 1 accoa_c + 1 succoa_c</t>
-  </si>
-  <si>
-    <t>1 3oadpcoa_c + 1 coa_c -&gt; 1 succoa_c + 1 accoa_c</t>
-  </si>
-  <si>
     <t>3HAD160</t>
   </si>
   <si>
-    <t>_4.2.1.61-RXN</t>
-  </si>
-  <si>
     <t>1 3hpalmACP_c -&gt; 1 h2o_c + 1 tpalm2eACP_c</t>
   </si>
   <si>
-    <t>1 3hpalmACP_c &lt;=&gt; 1 h2o_c + 1 tpalm2eACP_c</t>
-  </si>
-  <si>
     <t>ACONTb</t>
   </si>
   <si>
@@ -1394,27 +1281,12 @@
     <t>1 h2o_c + 1 acon_C_c &lt;=&gt; 1 icit_c</t>
   </si>
   <si>
-    <t>BALATA</t>
-  </si>
-  <si>
-    <t>_2.6.1.18-RXN</t>
-  </si>
-  <si>
-    <t>1 ala_B_c + 1 pyr_c &lt;=&gt; 1 ala__L_c + 1 malsa_c</t>
-  </si>
-  <si>
-    <t>1 malsa_c + 1 ala__L_c &lt;=&gt; 1 ala_B_c + 1 pyr_c</t>
-  </si>
-  <si>
     <t>3OAR160</t>
   </si>
   <si>
     <t>RXN-9540</t>
   </si>
   <si>
-    <t>1 3opalmACP_c + 1 h_c + 1 nadph_c &lt;=&gt; 1 3hpalmACP_c + 1 nadp_c</t>
-  </si>
-  <si>
     <t>1 3opalmACP_c + 1 nadph_c + 1 h_c -&gt; 1 3hpalmACP_c + 1 nadp_c</t>
   </si>
   <si>
@@ -1439,45 +1311,12 @@
     <t>1 3hhexACP_c -&gt; 1 h2o_c + 1 thex2eACP_c</t>
   </si>
   <si>
-    <t>1 3hhexACP_c &lt;=&gt; 1 h2o_c + 1 thex2eACP_c</t>
-  </si>
-  <si>
     <t>METTRS</t>
   </si>
   <si>
     <t>1 atp_c + 1 met__L_c + 1 trnamet_c -&gt; 1 amp_c + 1 mettrna_c + 1 ppi_c</t>
   </si>
   <si>
-    <t>MSADH</t>
-  </si>
-  <si>
-    <t>RXN-2902</t>
-  </si>
-  <si>
-    <t>1 coa_c + 1 malsa_c + 1 nad_c -&gt; 1 accoa_c + 1 co2_c + 1 nadh_c</t>
-  </si>
-  <si>
-    <t>1 malsa_c + 1 nad_c + 1 coa_c -&gt; 1 co2_c + 1 nadh_c + 1 accoa_c</t>
-  </si>
-  <si>
-    <t>3OACOAT</t>
-  </si>
-  <si>
-    <t>_3-OXOADIPATE-COA-TRANSFERASE-RXN</t>
-  </si>
-  <si>
-    <t>1 3oadipate_c + 1 succoa_c -&gt; 1 3oadpcoa_c + 1 succ_c</t>
-  </si>
-  <si>
-    <t>1 succoa_c + 1 3oadipate_c -&gt; 1 3oadpcoa_c + 1 succ_c</t>
-  </si>
-  <si>
-    <t>_1TRANSKETO-RXN</t>
-  </si>
-  <si>
-    <t>1 xu5p__D_c + 1 r5p_c -&gt; 1 s7p_c + 1 g3p_c</t>
-  </si>
-  <si>
     <t>3HAD180</t>
   </si>
   <si>
@@ -1487,36 +1326,12 @@
     <t>1 3hoctaACP_c -&gt; 1 h2o_c + 1 toctd2eACP_c</t>
   </si>
   <si>
-    <t>ILEDH</t>
-  </si>
-  <si>
-    <t>_2KETO-3METHYLVALERATE-RXN</t>
-  </si>
-  <si>
-    <t>1 3mop_c + 1 coa_c + 1 nad_c -&gt; 1 2mbtcoa_c + 1 co2_c + 1 nadh_c</t>
-  </si>
-  <si>
-    <t>1 3mop_c + 1 nad_c + 1 coa_c &lt;=&gt; 1 co2_c + 1 nadh_c + 1 2mbtcoa_c</t>
-  </si>
-  <si>
     <t>TYRTRS</t>
   </si>
   <si>
     <t>1 atp_c + 1 trnatyr_c + 1 tyr__L_c -&gt; 1 amp_c + 1 ppi_c + 1 tyrtrna_c</t>
   </si>
   <si>
-    <t>TRPOX2</t>
-  </si>
-  <si>
-    <t>RXN-8665</t>
-  </si>
-  <si>
-    <t>1 o2_c + 1 trp__L_c -&gt; 1 nfkyr_c</t>
-  </si>
-  <si>
-    <t>1 trp__L_c + 1 o2_c -&gt; 1 nfkyr_c</t>
-  </si>
-  <si>
     <t>KDOPS</t>
   </si>
   <si>
@@ -1547,9 +1362,6 @@
     <t>1 3hdecACP_c -&gt; 1 h2o_c + 1 tdec2eACP_c</t>
   </si>
   <si>
-    <t>1 3hdecACP_c &lt;=&gt; 1 h2o_c + 1 tdec2eACP_c</t>
-  </si>
-  <si>
     <t>GLUTRS</t>
   </si>
   <si>
@@ -1586,18 +1398,6 @@
     <t>1 arg__L_c + 1 atp_c + 1 trnaarg_c -&gt; 1 amp_c + 1 argtrna_c + 1 ppi_c</t>
   </si>
   <si>
-    <t>LEUDH</t>
-  </si>
-  <si>
-    <t>_2KETO-4METHYL-PENTANOATE-DEHYDROG-RXN</t>
-  </si>
-  <si>
-    <t>1 4mop_c + 1 coa_c + 1 nad_c -&gt; 1 co2_c + 1 mbtcoa_c + 1 nadh_c</t>
-  </si>
-  <si>
-    <t>1 4mop_c + 1 nad_c + 1 coa_c -&gt; 1 co2_c + 1 nadh_c + 1 mbtcoa_c</t>
-  </si>
-  <si>
     <t>HMGL</t>
   </si>
   <si>
@@ -1661,9 +1461,6 @@
     <t>RXN-9532</t>
   </si>
   <si>
-    <t>1 3oddecACP_c + 1 h_c + 1 nadph_c &lt;=&gt; 1 3hddecACP_c + 1 nadp_c</t>
-  </si>
-  <si>
     <t>1 3oddecACP_c + 1 nadph_c + 1 h_c -&gt; 1 3hddecACP_c + 1 nadp_c</t>
   </si>
   <si>
@@ -1715,9 +1512,6 @@
     <t>1 3hddecACP_c -&gt; 1 h2o_c + 1 tddec2eACP_c</t>
   </si>
   <si>
-    <t>1 3hddecACP_c &lt;=&gt; 1 h2o_c + 1 tddec2eACP_c</t>
-  </si>
-  <si>
     <t>ICDHyr</t>
   </si>
   <si>
@@ -1742,18 +1536,6 @@
     <t>1 ppa_c + 1 coa_c + 1 atp_c &lt;=&gt; 1 ppcoa_c + 1 adp_c + 1 pi_c</t>
   </si>
   <si>
-    <t>VALDH</t>
-  </si>
-  <si>
-    <t>_1.2.1.25-RXN</t>
-  </si>
-  <si>
-    <t>1 3mob_c + 1 coa_c + 1 nad_c -&gt; 1 co2_c + 1 ibtcoa_c + 1 nadh_c</t>
-  </si>
-  <si>
-    <t>1 3mob_c + 1 nad_c + 1 coa_c -&gt; 1 co2_c + 1 nadh_c + 1 ibtcoa_c</t>
-  </si>
-  <si>
     <t>GLNTRS</t>
   </si>
   <si>
@@ -1805,9 +1587,6 @@
     <t>RXN-9518</t>
   </si>
   <si>
-    <t>1 3ohexACP_c + 1 h_c + 1 nadph_c &lt;=&gt; 1 3hhexACP_c + 1 nadp_c</t>
-  </si>
-  <si>
     <t>1 3ohexACP_c + 1 nadph_c + 1 h_c -&gt; 1 3hhexACP_c + 1 nadp_c</t>
   </si>
   <si>
@@ -1865,24 +1644,6 @@
     <t>1 atp_c + 1 12dgr120_c &lt;=&gt; 1 adp_c + 1 pa120_c</t>
   </si>
   <si>
-    <t>PHPYRDIO</t>
-  </si>
-  <si>
-    <t>rxn00999</t>
-  </si>
-  <si>
-    <t>1 o2_c + 1 phpyr_c -&gt; 1 2hpac_c + 1 co2_c</t>
-  </si>
-  <si>
-    <t>1 o2_c + 1 phpyr_c -&gt; 1 co2_c + 1 2hpac_c</t>
-  </si>
-  <si>
-    <t>rxn01827</t>
-  </si>
-  <si>
-    <t>1 o2_c + 1 34hpp_c &lt;=&gt; 1 co2_c + 1 25dhpac_c</t>
-  </si>
-  <si>
     <t>PGSA120</t>
   </si>
   <si>
@@ -1898,9 +1659,6 @@
     <t>rxn01504</t>
   </si>
   <si>
-    <t>1 hmgcoa_c &lt;=&gt; 1 h2o_c + 1 mgccoa_c</t>
-  </si>
-  <si>
     <t>KDOCT2</t>
   </si>
   <si>
@@ -1937,12 +1695,6 @@
     <t>1 atp_c + 1 12dgr141_c &lt;=&gt; 1 adp_c + 1 pa141_c</t>
   </si>
   <si>
-    <t>rxn05108</t>
-  </si>
-  <si>
-    <t>1 glu__L_c + 1 kmba_c &lt;=&gt; 1 met__L_c + 1 akg_c</t>
-  </si>
-  <si>
     <t>rxn00985</t>
   </si>
   <si>
@@ -2015,27 +1767,15 @@
     <t>1 glyc3p_c + 1 cdpdtdec7eg_c &lt;=&gt; 1 cmp_c + 1 pgp141_c</t>
   </si>
   <si>
-    <t>rxn00656</t>
-  </si>
-  <si>
     <t>EAR120x</t>
   </si>
   <si>
     <t>rxn05324</t>
   </si>
   <si>
-    <t>1 h_c + 1 nadh_c + 1 tddec2eACP_c -&gt; 1 ddcaACP_c + 1 nad_c</t>
-  </si>
-  <si>
     <t>2 h_c + 1 nadh_c + 1 tddec2eACP_c -&gt; 1 nad_c + 1 ddcaACP_c</t>
   </si>
   <si>
-    <t>rxn00501</t>
-  </si>
-  <si>
-    <t>1 coa_c + 1 nad_c + 1 malsa_c &lt;=&gt; 1 accoa_c + 1 nadh_c + 1 co2_c</t>
-  </si>
-  <si>
     <t>EAR140y</t>
   </si>
   <si>
@@ -2054,9 +1794,6 @@
     <t>rxn05323</t>
   </si>
   <si>
-    <t>1 h_c + 1 nadh_c + 1 tmrs2eACP_c -&gt; 1 myrsACP_c + 1 nad_c</t>
-  </si>
-  <si>
     <t>2 h_c + 1 nadh_c + 1 tmrs2eACP_c -&gt; 1 nad_c + 1 myrsACP_c</t>
   </si>
   <si>
@@ -2096,9 +1833,6 @@
     <t>2 h_c + 1 nadh_c + 1 but2eACP_c -&gt; 1 nad_c + 1 butACP_c</t>
   </si>
   <si>
-    <t>rxn00478</t>
-  </si>
-  <si>
     <t>DAGK160</t>
   </si>
   <si>
@@ -2165,9 +1899,6 @@
     <t>rxn05327</t>
   </si>
   <si>
-    <t>1 h_c + 1 nadh_c + 1 tdec2eACP_c -&gt; 1 dcaACP_c + 1 nad_c</t>
-  </si>
-  <si>
     <t>2 h_c + 1 nadh_c + 1 tdec2eACP_c -&gt; 1 nad_c + 1 dcaACP_c</t>
   </si>
   <si>
@@ -2201,9 +1932,6 @@
     <t>rxn05339</t>
   </si>
   <si>
-    <t>1 actACP_c + 1 h_c + 1 nadph_c &lt;=&gt; 1 3haACP_c + 1 nadp_c</t>
-  </si>
-  <si>
     <t>1 nadp_c + 1 3haACP_c &lt;=&gt; 1 nadph_c + 1 actACP_c</t>
   </si>
   <si>
@@ -2324,87 +2052,18 @@
     <t>1 malACP_c + 1 dcaACP_c &lt;=&gt; 1 co2_c + 1 ACP_c + 1 3oddecACP_c</t>
   </si>
   <si>
-    <t>KYRFOR</t>
-  </si>
-  <si>
-    <t>R01959</t>
-  </si>
-  <si>
-    <t>1 h2o_c + 1 nfkyr_c -&gt; 1 for_c + 1 h_c + 1 kyr_c</t>
-  </si>
-  <si>
-    <t>1 h2o_c + 1 nfkyr_c &lt;=&gt; 1 for_c + 1 kyr_c</t>
-  </si>
-  <si>
-    <t>KYRH</t>
-  </si>
-  <si>
-    <t>R00987</t>
-  </si>
-  <si>
-    <t>1 h2o_c + 1 kyr_c -&gt; 1 ala__L_c + 1 anth_c + 1 h_c</t>
-  </si>
-  <si>
-    <t>1 h2o_c + 1 kyr_c &lt;=&gt; 1 ala__L_c + 1 anth_c</t>
-  </si>
-  <si>
-    <t>GCOADH</t>
-  </si>
-  <si>
-    <t>R02487</t>
-  </si>
-  <si>
-    <t>1 fad_c + 1 gcoa_c + 1 h_c &lt;=&gt; 1 b2coa_c + 1 co2_c + 1 fadh2_c</t>
-  </si>
-  <si>
-    <t>1 fad_c + 1 gcoa_c -&gt; 1 co2_c + 1 b2coa_c + 1 fadh2_c</t>
-  </si>
-  <si>
     <t>PRFGS</t>
   </si>
   <si>
     <t>1 atp_c + 1 fgam_c + 1 gln__L_c + 1 h2o_c -&gt; 1 adp_c + 1 fpram_c + 1 glu__L_c + 1 h_c + 1 pi_c</t>
   </si>
   <si>
-    <t>R01372</t>
-  </si>
-  <si>
-    <t>1 o2_c + 1 phpyr_c &lt;=&gt; 1 co2_c + 1 2hpac_c</t>
-  </si>
-  <si>
     <t>R05646</t>
   </si>
   <si>
     <t>1 atp_c + 1 gmhep7p_c &lt;=&gt; 1 adp_c + 1 gmhep17bp_c</t>
   </si>
   <si>
-    <t>CASDC</t>
-  </si>
-  <si>
-    <t>R09081</t>
-  </si>
-  <si>
-    <t>1 caspmd_c + 1 h_c -&gt; 1 co2_c + 1 spmd_c</t>
-  </si>
-  <si>
-    <t>1 caspmd_c &lt;=&gt; 1 co2_c + 1 spmd_c</t>
-  </si>
-  <si>
-    <t>CASDH</t>
-  </si>
-  <si>
-    <t>R09079</t>
-  </si>
-  <si>
-    <t>1 aspsa_c + 1 h_c + 1 nadph_c + 1 ptrc_c -&gt; 1 caspmd_c + 1 h2o_c + 1 nadp_c</t>
-  </si>
-  <si>
-    <t>1 nadph_c + 1 h_c + 1 ptrc_c + 1 aspsa_c &lt;=&gt; 1 h2o_c + 1 nadp_c + 1 caspmd_c</t>
-  </si>
-  <si>
-    <t>R02521</t>
-  </si>
-  <si>
     <t>EAR60y</t>
   </si>
   <si>
@@ -2423,12 +2082,6 @@
     <t>1 ctp_c + 1 kdo_c &lt;=&gt; 1 ppi_c + 1 ckdo_c</t>
   </si>
   <si>
-    <t>R07396</t>
-  </si>
-  <si>
-    <t>1 glu__L_c + 1 kmba_c &lt;=&gt; 1 akg_c + 1 met__L_c</t>
-  </si>
-  <si>
     <t>ANTHFOR</t>
   </si>
   <si>
@@ -2450,15 +2103,6 @@
     <t>1 nadp_c + 1 ddcaACP_c &lt;=&gt; 1 nadph_c + 1 h_c + 1 tddec2eACP_c</t>
   </si>
   <si>
-    <t>R00908</t>
-  </si>
-  <si>
-    <t>R00829</t>
-  </si>
-  <si>
-    <t>1 accoa_c + 1 succoa_c &lt;=&gt; 1 coa_c + 1 3oadpcoa_c</t>
-  </si>
-  <si>
     <t>R04959</t>
   </si>
   <si>
@@ -2471,24 +2115,6 @@
     <t>1 nad_c + 1 ocACP_c &lt;=&gt; 1 nadh_c + 1 h_c + 1 toct2eACP_c</t>
   </si>
   <si>
-    <t>FACACH</t>
-  </si>
-  <si>
-    <t>R01364</t>
-  </si>
-  <si>
-    <t>1 4facac_c + 1 h2o_c -&gt; 1 acac_c + 1 fum_c + 1 h_c</t>
-  </si>
-  <si>
-    <t>1 fum_c + 1 acac_c &lt;=&gt; 1 h2o_c + 1 4facac_c</t>
-  </si>
-  <si>
-    <t>R00907</t>
-  </si>
-  <si>
-    <t>1 ala__L_c + 1 malsa_c &lt;=&gt; 1 pyr_c + 1 ala_B_c</t>
-  </si>
-  <si>
     <t>R04724</t>
   </si>
   <si>
@@ -2507,24 +2133,6 @@
     <t>1 ac_c + 1 btcoa_c &lt;=&gt; 1 accoa_c + 1 but_c</t>
   </si>
   <si>
-    <t>3OAELASE</t>
-  </si>
-  <si>
-    <t>R02991</t>
-  </si>
-  <si>
-    <t>1 3oael_c + 1 h2o_c -&gt; 1 3oadipate_c + 1 h_c</t>
-  </si>
-  <si>
-    <t>1 h2o_c + 1 3oael_c &lt;=&gt; 1 3oadipate_c</t>
-  </si>
-  <si>
-    <t>R00705</t>
-  </si>
-  <si>
-    <t>1 nad_c + 1 coa_c + 1 malsa_c &lt;=&gt; 1 nadh_c + 1 co2_c + 1 accoa_c + 1 h_c</t>
-  </si>
-  <si>
     <t>UAGPT3</t>
   </si>
   <si>
@@ -2549,24 +2157,12 @@
     <t>1 nad_c + 1 myrsACP_c &lt;=&gt; 1 nadh_c + 1 h_c + 1 tmrs2eACP_c</t>
   </si>
   <si>
-    <t>R02990</t>
-  </si>
-  <si>
-    <t>1 succoa_c + 1 3oadipate_c &lt;=&gt; 1 succ_c + 1 3oadpcoa_c</t>
-  </si>
-  <si>
     <t>R04429</t>
   </si>
   <si>
     <t>1 nad_c + 1 butACP_c &lt;=&gt; 1 nadh_c + 1 h_c + 1 but2eACP_c</t>
   </si>
   <si>
-    <t>R00678</t>
-  </si>
-  <si>
-    <t>1 o2_c + 1 trp__L_c &lt;=&gt; 1 nfkyr_c</t>
-  </si>
-  <si>
     <t>R03350</t>
   </si>
   <si>
@@ -2579,15 +2175,6 @@
     <t>1 atp_c + 1 fpram_c -&gt; 1 adp_c + 1 air_c + 2 h_c + 1 pi_c</t>
   </si>
   <si>
-    <t>GLCNACUNDT_BP</t>
-  </si>
-  <si>
-    <t>1 uacgam_c + 1 udcpp_c -&gt; 1 ump_c + 1 undpglcnac_BP_c</t>
-  </si>
-  <si>
-    <t>1 uacgam_c + 1 udcpp_c &lt;=&gt; 1 ump_c + 1 undpglcnac_BP_c</t>
-  </si>
-  <si>
     <t>UGMDDS</t>
   </si>
   <si>
@@ -2633,12 +2220,6 @@
     <t>R03936</t>
   </si>
   <si>
-    <t>1 h2o_c + 1 nfkyr_c -&gt; 1 ala__L_c + 1 h_c + 1 nfanth_c</t>
-  </si>
-  <si>
-    <t>1 h2o_c + 1 nfkyr_c -&gt; 1 ala__L_c + 1 nfanth_c</t>
-  </si>
-  <si>
     <t>R04960</t>
   </si>
   <si>
@@ -2666,9 +2247,6 @@
     <t>R04955</t>
   </si>
   <si>
-    <t>1 h_c + 1 nadh_c + 1 thex2eACP_c -&gt; 1 hexACP_c + 1 nad_c</t>
-  </si>
-  <si>
     <t>1 nad_c + 1 hexACP_c &lt;=&gt; 1 nadh_c + 1 h_c + 1 thex2eACP_c</t>
   </si>
   <si>
@@ -2684,18 +2262,6 @@
     <t>1 malACP_c + 1 myrsACP_c &lt;=&gt; 1 co2_c + 1 ACP_c + 1 3opalmACP_c</t>
   </si>
   <si>
-    <t>25DHPACDIO</t>
-  </si>
-  <si>
-    <t>R02519</t>
-  </si>
-  <si>
-    <t>1 25dhpac_c + 1 o2_c -&gt; 1 4macac_c + 1 h_c</t>
-  </si>
-  <si>
-    <t>1 o2_c + 1 25dhpac_c &lt;=&gt; 1 4macac_c</t>
-  </si>
-  <si>
     <t>R05647</t>
   </si>
   <si>
@@ -2732,18 +2298,6 @@
     <t>1 ugmda_c + 1 udcpp_c -&gt; 1 ump_c + 1 uagmda_c</t>
   </si>
   <si>
-    <t>ANTHDIODC</t>
-  </si>
-  <si>
-    <t>R00823</t>
-  </si>
-  <si>
-    <t>1 anth_c + 3 h_c + 1 nadh_c + 1 o2_c -&gt; 1 catech_c + 1 co2_c + 1 nad_c + 1 nh4_c</t>
-  </si>
-  <si>
-    <t>1 nadh_c + 1 o2_c + 1 h_c + 1 anth_c &lt;=&gt; 1 nad_c + 1 co2_c + 1 nh4_c + 1 catech_c</t>
-  </si>
-  <si>
     <t>AIRC2</t>
   </si>
   <si>
@@ -2768,33 +2322,12 @@
     <t>1 atp_c + 1 coa_c + 1 ppa_c &lt;=&gt; 1 adp_c + 1 pi_c + 1 ppcoa_c</t>
   </si>
   <si>
-    <t>23DHBDC</t>
-  </si>
-  <si>
-    <t>R00821</t>
-  </si>
-  <si>
-    <t>1 23dhb_c + 1 h_c -&gt; 1 catech_c + 1 co2_c</t>
-  </si>
-  <si>
-    <t>1 23dhb_c &lt;=&gt; 1 co2_c + 1 catech_c</t>
-  </si>
-  <si>
     <t>R04726</t>
   </si>
   <si>
     <t>1 malACP_c + 1 ddcaACP_c &lt;=&gt; 1 co2_c + 1 ACP_c + 1 3omrsACP_c</t>
   </si>
   <si>
-    <t>MACACISO</t>
-  </si>
-  <si>
-    <t>R03181</t>
-  </si>
-  <si>
-    <t>1 4macac_c &lt;=&gt; 1 4facac_c</t>
-  </si>
-  <si>
     <t>ACPS1</t>
   </si>
   <si>
@@ -2807,24 +2340,12 @@
     <t>1 coa_c + 1 apoACP_c -&gt; 1 pap_c + 1 ACP_c</t>
   </si>
   <si>
-    <t>4-HYDROXYPHENYLPYRUVATE-DIOXYGENASE-RXN</t>
-  </si>
-  <si>
-    <t>1 o2_c + 1 34hpp_c -&gt; 1 co2_c + 1 25dhpac_c</t>
-  </si>
-  <si>
     <t>4.2.1.61-RXN</t>
   </si>
   <si>
     <t>1 3hpalmACP_c -&gt; 1 tpalm2eACP_c + 1 h2o_c</t>
   </si>
   <si>
-    <t>3-OXOADIPATE-COA-TRANSFERASE-RXN</t>
-  </si>
-  <si>
-    <t>1 udcpp_c + 1 uacgam_c -&gt; 1 undpglcnac_BP_c + 1 ump_c</t>
-  </si>
-  <si>
     <t>NTD4</t>
   </si>
   <si>
@@ -2843,18 +2364,6 @@
     <t>1 amp_c + 1 h2o_c -&gt; 1 adn_c + 1 pi_c</t>
   </si>
   <si>
-    <t>2KETO-3METHYLVALERATE-RXN</t>
-  </si>
-  <si>
-    <t>1 3mop_c + 1 coa_c + 1 nad_c &lt;=&gt; 1 2mbtcoa_c + 1 co2_c + 1 nadh_c</t>
-  </si>
-  <si>
-    <t>2KETO-4METHYL-PENTANOATE-DEHYDROG-RXN</t>
-  </si>
-  <si>
-    <t>1.2.1.25-RXN</t>
-  </si>
-  <si>
     <t>KARA1</t>
   </si>
   <si>
@@ -2879,12 +2388,6 @@
     <t>R08635</t>
   </si>
   <si>
-    <t>1 met__L_c -&gt; 1 2abut2en_c + 1 h_c + 1 methth_c</t>
-  </si>
-  <si>
-    <t>1 met__L_c &lt;=&gt; 1 2abut2en_c + 1 methth_c</t>
-  </si>
-  <si>
     <t>ECOAH1</t>
   </si>
   <si>
@@ -2922,12 +2425,186 @@
   </si>
   <si>
     <t>S14 Table. Additional reaction synonyms discovered</t>
+  </si>
+  <si>
+    <t>1 3ohexACP_c + 1 h_c + 1 nadph_c -&gt; 1 3hhexACP_c + 1 nadp_c</t>
+  </si>
+  <si>
+    <t>1 3oddecACP_c + 1 h_c + 1 nadph_c -&gt; 1 3hddecACP_c + 1 nadp_c</t>
+  </si>
+  <si>
+    <t>ENOYL-ACP-REDUCT-NADH-RXN-Myristoyl-ACPs/NAD//Tetradec-2-enoyl-ACPs/NADH/PROTON.54.</t>
+  </si>
+  <si>
+    <t>1 tmrs2eACP_c + 1 h_c + 1 nadh_c -&gt; 1 nad_c + 1 myrsACP_c</t>
+  </si>
+  <si>
+    <t>1 tmrs2eACP_c + 1 nadh_c + 1 h_c -&gt; 1 myrsACP_c + 1 nad_c</t>
+  </si>
+  <si>
+    <t>3-HYDROXYDECANOYL-ACP-DEHYDR-RXN-R-3-hydroxystearoyl-ACPs//Octadec-2-enoyl-ACPs/WATER.53.</t>
+  </si>
+  <si>
+    <t>1 3hoctaACP_c -&gt; 1 toctd2eACP_c + 1 h2o_c</t>
+  </si>
+  <si>
+    <t>1 3opalmACP_c + 1 h_c + 1 nadph_c -&gt; 1 3hpalmACP_c + 1 nadp_c</t>
+  </si>
+  <si>
+    <t>3-HYDROXYDECANOYL-ACP-DEHYDR-RXN-R-3-hydroxydodecanoyl-ACPs//Dodec-2-enoyl-ACPs/WATER.53.</t>
+  </si>
+  <si>
+    <t>1 3hddecACP_c -&gt; 1 tddec2eACP_c + 1 h2o_c</t>
+  </si>
+  <si>
+    <t>3-OXOACYL-ACP-SYNTH-RXN-Myristoyl-ACPs/MALONYL-ACP/PROTON//3-oxo-palmitoyl-ACPs/CARBON-DIOXIDE/ACP.75.</t>
+  </si>
+  <si>
+    <t>1 malACP_c + 1 myrsACP_c + 1 h_c -&gt; 1 3opalmACP_c + 1 ACP_c + 1 co2_c</t>
+  </si>
+  <si>
+    <t>3-HYDROXYDECANOYL-ACP-DEHYDR-RXN-R-3-hydroxyhexanoyl-ACPs//Hex-2-enoyl-ACPs/WATER.49.</t>
+  </si>
+  <si>
+    <t>1 3hhexACP_c -&gt; 1 thex2eACP_c + 1 h2o_c</t>
+  </si>
+  <si>
+    <t>5.4.2.10-RXN-CPD-13469//GLUCOSAMINE-1P.26.</t>
+  </si>
+  <si>
+    <t>EAR180x</t>
+  </si>
+  <si>
+    <t>ENOYL-ACP-REDUCT-NADH-RXN-Stearoyl-ACPs/NAD//Octadec-2-enoyl-ACPs/NADH/PROTON.52.</t>
+  </si>
+  <si>
+    <t>1 toctd2eACP_c + 1 h_c + 1 nadh_c -&gt; 1 nad_c + 1 ocdcaACP_c</t>
+  </si>
+  <si>
+    <t>1 toctd2eACP_c + 1 nadh_c + 1 h_c -&gt; 1 ocdcaACP_c + 1 nad_c</t>
+  </si>
+  <si>
+    <t>1TRANSKETO-RXN-D-SEDOHEPTULOSE-7-P/GAP//CPD-16551/XYLULOSE-5-PHOSPHATE.56.</t>
+  </si>
+  <si>
+    <t>3-HYDROXYDECANOYL-ACP-DEHYDR-RXN-Beta-hydroxydecanoyl-ACPs//Trans-D2-decenoyl-ACPs/WATER.56.</t>
+  </si>
+  <si>
+    <t>1 3hdecACP_c -&gt; 1 tdec2eACP_c + 1 h2o_c</t>
+  </si>
+  <si>
+    <t>3-HYDROXYDECANOYL-ACP-DEHYDR-RXN-R-3-Hydroxypalmitoyl-ACPs//2-Hexadecenoyl-ACPs/WATER.53.</t>
+  </si>
+  <si>
+    <t>RXN-9662</t>
+  </si>
+  <si>
+    <t>RXN-9539</t>
+  </si>
+  <si>
+    <t>1 myrsACP_c + 1 malACP_c + 1 h_c -&gt; 1 3opalmACP_c + 1 ACP_c + 1 co2_c</t>
+  </si>
+  <si>
+    <t>RXN-9635</t>
+  </si>
+  <si>
+    <t>1 tdec2eACP_c + 1 h_c + 1 nadh_c -&gt; 1 dcaACP_c + 1 nad_c</t>
+  </si>
+  <si>
+    <t>1 toct2eACP_c + 1 h_c + 1 nadh_c -&gt; 1 nad_c + 1 ocACP_c</t>
+  </si>
+  <si>
+    <t>1 tddec2eACP_c + 1 h_c + 1 nadh_c -&gt; 1 ddcaACP_c + 1 nad_c</t>
+  </si>
+  <si>
+    <t>1 actACP_c + 1 h_c + 1 nadph_c -&gt; 1 3haACP_c + 1 nadp_c</t>
+  </si>
+  <si>
+    <t>CMPDC</t>
+  </si>
+  <si>
+    <t>R02952</t>
+  </si>
+  <si>
+    <t>1 T4hcinnm_c + 1 h_c -&gt; 1 4vcoum_c + 1 co2_c</t>
+  </si>
+  <si>
+    <t>1 T4hcinnm_c -&gt; 1 co2_c + 1 4vcoum_c</t>
+  </si>
+  <si>
+    <t>1 thex2eACP_c + 1 h_c + 1 nadh_c -&gt; 1 hexACP_c + 1 nad_c</t>
+  </si>
+  <si>
+    <t>MGCH</t>
+  </si>
+  <si>
+    <t>1 h2o_c + 1 3mgcoa_c -&gt; 1 hmgcoa_c</t>
+  </si>
+  <si>
+    <t>RXN-9538</t>
+  </si>
+  <si>
+    <t>1 nadp_c + 1 myrsACP_c &lt;=&gt; 1 tmrs2eACP_c + 1 nadph_c + 1 h_c</t>
+  </si>
+  <si>
+    <t>G3PAT140</t>
+  </si>
+  <si>
+    <t>RXN-17017</t>
+  </si>
+  <si>
+    <t>1 glyc3p_c + 1 myrsACP_c -&gt; 1 1tdecg3p_c + 1 ACP_c</t>
+  </si>
+  <si>
+    <t>1 myrsACP_c + 1 glyc3p_c -&gt; 1 1tdecg3p_c + 1 ACP_c</t>
+  </si>
+  <si>
+    <t>EAR180y</t>
+  </si>
+  <si>
+    <t>RXN3O-5293</t>
+  </si>
+  <si>
+    <t>1 h_c + 1 nadph_c + 1 toctd2eACP_c -&gt; 1 nadp_c + 1 ocdcaACP_c</t>
+  </si>
+  <si>
+    <t>1 nadp_c + 1 ocdcaACP_c &lt;=&gt; 1 toctd2eACP_c + 1 nadph_c + 1 h_c</t>
+  </si>
+  <si>
+    <t>G3PAT180</t>
+  </si>
+  <si>
+    <t>RXN-16024</t>
+  </si>
+  <si>
+    <t>1 glyc3p_c + 1 ocdcaACP_c -&gt; 1 1odecg3p_c + 1 ACP_c</t>
+  </si>
+  <si>
+    <t>1 ocdcaACP_c + 1 glyc3p_c &lt;=&gt; 1 1odecg3p_c + 1 ACP_c</t>
+  </si>
+  <si>
+    <t>1 hmgcoa_c &lt;=&gt; 1 h2o_c + 1 3mgcoa_c</t>
+  </si>
+  <si>
+    <t>R02085</t>
+  </si>
+  <si>
+    <t>1 h2o_c + 1 Lfmkynr_c -&gt; 1 ala__L_c + 1 h_c + 1 nfanth_c</t>
+  </si>
+  <si>
+    <t>1 h2o_c + 1 Lfmkynr_c -&gt; 1 ala__L_c + 1 nfanth_c</t>
+  </si>
+  <si>
+    <t>1 met__L_c -&gt; 1 2abut2en_c + 1 h_c + 1 ch4s_c</t>
+  </si>
+  <si>
+    <t>1 met__L_c &lt;=&gt; 1 2abut2en_c + 1 ch4s_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3272,11 +2949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G322"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A322" sqref="A4:A322"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3292,7 +2969,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>965</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3389,16 +3066,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>518</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>519</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>520</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -3412,16 +3089,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -3435,16 +3112,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -3458,16 +3135,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>476</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>477</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>801</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>478</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -3481,16 +3158,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>587</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>802</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>803</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>804</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -3504,16 +3181,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -3527,16 +3204,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>805</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>806</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>432</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -3550,16 +3227,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -3573,16 +3250,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -3596,16 +3273,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>418</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>419</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>807</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>420</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -3619,16 +3296,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>492</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>808</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>809</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>494</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -3642,16 +3319,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -3665,16 +3342,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -3688,16 +3365,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>364</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -3711,16 +3388,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -3734,16 +3411,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -3757,16 +3434,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -3780,16 +3457,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -3803,16 +3480,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -3826,16 +3503,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -3849,16 +3526,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>648</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>810</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>811</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -3872,16 +3549,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -3895,16 +3572,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>425</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>812</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>813</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>427</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -3918,16 +3595,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -3941,16 +3618,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>814</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -3964,16 +3641,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -3987,16 +3664,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -4010,16 +3687,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -4033,16 +3710,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>815</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>816</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>817</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>818</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -4056,16 +3733,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -4079,16 +3756,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -4102,16 +3779,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -4125,16 +3802,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -4148,16 +3825,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -4171,16 +3848,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -4194,16 +3871,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -4217,16 +3894,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>819</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -4240,16 +3917,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -4263,16 +3940,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>442</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>820</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>821</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>444</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -4286,16 +3963,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -4309,16 +3986,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -4332,16 +4009,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -4355,16 +4032,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -4378,16 +4055,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -4401,16 +4078,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -4424,16 +4101,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -4447,16 +4124,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -4470,16 +4147,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -4493,16 +4170,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -4516,16 +4193,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -4539,16 +4216,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>822</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>772</v>
       </c>
       <c r="D57" t="s">
-        <v>201</v>
+        <v>413</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -4562,22 +4239,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4585,22 +4262,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -4608,22 +4285,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>587</v>
       </c>
       <c r="B60" t="s">
-        <v>210</v>
+        <v>823</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>803</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>804</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4631,22 +4308,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>213</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>431</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>806</v>
       </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>806</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -4654,22 +4331,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>492</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>493</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>809</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>809</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4677,22 +4354,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>648</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>824</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>650</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>825</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -4700,22 +4377,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>425</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>426</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>813</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>813</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -4723,22 +4400,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>815</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>826</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>817</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>818</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4746,22 +4423,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -4769,22 +4446,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>227</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>443</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>821</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>821</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -4792,22 +4469,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>771</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>772</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>772</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -4815,22 +4492,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4838,22 +4515,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4861,22 +4538,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4884,22 +4561,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4907,22 +4584,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4930,22 +4607,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4953,22 +4630,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -4976,22 +4653,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>251</v>
+        <v>622</v>
       </c>
       <c r="B76" t="s">
-        <v>252</v>
+        <v>623</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>827</v>
       </c>
       <c r="D76" t="s">
-        <v>254</v>
+        <v>624</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4999,22 +4676,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="D77" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -5022,22 +4699,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>259</v>
+        <v>587</v>
       </c>
       <c r="B78" t="s">
-        <v>260</v>
+        <v>588</v>
       </c>
       <c r="C78" t="s">
-        <v>261</v>
+        <v>803</v>
       </c>
       <c r="D78" t="s">
-        <v>262</v>
+        <v>589</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -5045,22 +4722,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="C79" t="s">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="D79" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -5068,22 +4745,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>267</v>
+        <v>202</v>
       </c>
       <c r="B80" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="D80" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5091,22 +4768,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="D81" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5114,22 +4791,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -5137,22 +4814,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -5160,22 +4837,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>279</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="C84" t="s">
-        <v>281</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>282</v>
+        <v>53</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -5183,22 +4860,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="D85" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -5206,22 +4883,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="B86" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="D86" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -5229,22 +4906,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="C87" t="s">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -5252,22 +4929,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>648</v>
       </c>
       <c r="B88" t="s">
-        <v>293</v>
+        <v>649</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>650</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>651</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -5275,22 +4952,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>295</v>
+        <v>669</v>
       </c>
       <c r="B89" t="s">
-        <v>296</v>
+        <v>670</v>
       </c>
       <c r="C89" t="s">
-        <v>297</v>
+        <v>671</v>
       </c>
       <c r="D89" t="s">
-        <v>298</v>
+        <v>672</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5298,22 +4975,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>629</v>
       </c>
       <c r="B90" t="s">
-        <v>299</v>
+        <v>630</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>631</v>
       </c>
       <c r="D90" t="s">
-        <v>300</v>
+        <v>632</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -5321,22 +4998,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>301</v>
+        <v>636</v>
       </c>
       <c r="B91" t="s">
-        <v>302</v>
+        <v>637</v>
       </c>
       <c r="C91" t="s">
-        <v>303</v>
+        <v>638</v>
       </c>
       <c r="D91" t="s">
-        <v>304</v>
+        <v>639</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5344,22 +5021,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>569</v>
       </c>
       <c r="B92" t="s">
-        <v>305</v>
+        <v>570</v>
       </c>
       <c r="C92" t="s">
-        <v>50</v>
+        <v>828</v>
       </c>
       <c r="D92" t="s">
-        <v>306</v>
+        <v>571</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5367,22 +5044,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B93" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D93" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -5390,22 +5067,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>308</v>
+        <v>580</v>
       </c>
       <c r="B94" t="s">
-        <v>309</v>
+        <v>581</v>
       </c>
       <c r="C94" t="s">
-        <v>310</v>
+        <v>829</v>
       </c>
       <c r="D94" t="s">
-        <v>311</v>
+        <v>582</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -5413,22 +5090,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="D95" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5436,22 +5113,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" t="s">
+        <v>228</v>
+      </c>
+      <c r="C96" t="s">
         <v>78</v>
       </c>
-      <c r="B96" t="s">
-        <v>313</v>
-      </c>
-      <c r="C96" t="s">
-        <v>80</v>
-      </c>
       <c r="D96" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5459,22 +5136,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="B97" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -5482,22 +5159,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -5505,22 +5182,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>531</v>
       </c>
       <c r="B99" t="s">
-        <v>317</v>
+        <v>532</v>
       </c>
       <c r="C99" t="s">
-        <v>96</v>
+        <v>533</v>
       </c>
       <c r="D99" t="s">
-        <v>96</v>
+        <v>534</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -5528,22 +5205,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="B100" t="s">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="C100" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="D100" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -5551,22 +5228,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="B101" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="D101" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5574,22 +5251,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="B102" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="C102" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="D102" t="s">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5597,22 +5274,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>598</v>
       </c>
       <c r="B103" t="s">
-        <v>327</v>
+        <v>599</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>600</v>
       </c>
       <c r="D103" t="s">
-        <v>328</v>
+        <v>601</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -5620,22 +5297,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="B104" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="C104" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="D104" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -5643,22 +5320,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B105" t="s">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D105" t="s">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5666,22 +5343,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B106" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D106" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5689,22 +5366,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>334</v>
+        <v>633</v>
       </c>
       <c r="B107" t="s">
-        <v>335</v>
+        <v>634</v>
       </c>
       <c r="C107" t="s">
-        <v>336</v>
+        <v>830</v>
       </c>
       <c r="D107" t="s">
-        <v>337</v>
+        <v>635</v>
       </c>
       <c r="E107" t="s">
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5712,22 +5389,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>338</v>
+        <v>259</v>
       </c>
       <c r="C108" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>339</v>
+        <v>260</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -5735,22 +5412,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>341</v>
+        <v>262</v>
       </c>
       <c r="C109" t="s">
-        <v>342</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>343</v>
+        <v>263</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5758,22 +5435,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>622</v>
       </c>
       <c r="B110" t="s">
-        <v>344</v>
+        <v>722</v>
       </c>
       <c r="C110" t="s">
-        <v>269</v>
+        <v>827</v>
       </c>
       <c r="D110" t="s">
-        <v>269</v>
+        <v>723</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5781,22 +5458,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="B111" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="C111" t="s">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="D111" t="s">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -5804,22 +5481,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="B112" t="s">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="C112" t="s">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="D112" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -5827,22 +5504,22 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>353</v>
+        <v>587</v>
       </c>
       <c r="B113" t="s">
-        <v>354</v>
+        <v>708</v>
       </c>
       <c r="C113" t="s">
-        <v>355</v>
+        <v>803</v>
       </c>
       <c r="D113" t="s">
-        <v>356</v>
+        <v>709</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5850,22 +5527,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -5873,22 +5550,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="B115" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="C115" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="D115" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5896,22 +5573,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>363</v>
+        <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="C116" t="s">
-        <v>365</v>
+        <v>34</v>
       </c>
       <c r="D116" t="s">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5919,22 +5596,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="B117" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="C117" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="D117" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -5942,22 +5619,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>370</v>
+        <v>284</v>
       </c>
       <c r="C118" t="s">
-        <v>371</v>
+        <v>42</v>
       </c>
       <c r="D118" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -5965,22 +5642,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="B119" t="s">
-        <v>373</v>
+        <v>287</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -5988,22 +5665,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="B120" t="s">
-        <v>374</v>
+        <v>290</v>
       </c>
       <c r="C120" t="s">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="D120" t="s">
-        <v>375</v>
+        <v>291</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6011,22 +5688,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>376</v>
+        <v>51</v>
       </c>
       <c r="B121" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="C121" t="s">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="D121" t="s">
-        <v>379</v>
+        <v>53</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6034,22 +5711,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B122" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="C122" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D122" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="E122" t="s">
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6057,22 +5734,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>648</v>
       </c>
       <c r="B123" t="s">
-        <v>382</v>
+        <v>743</v>
       </c>
       <c r="C123" t="s">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="D123" t="s">
-        <v>50</v>
+        <v>744</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6080,22 +5757,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>74</v>
+        <v>669</v>
       </c>
       <c r="B124" t="s">
-        <v>383</v>
+        <v>765</v>
       </c>
       <c r="C124" t="s">
-        <v>76</v>
+        <v>671</v>
       </c>
       <c r="D124" t="s">
-        <v>384</v>
+        <v>766</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6103,22 +5780,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>629</v>
       </c>
       <c r="B125" t="s">
-        <v>385</v>
+        <v>731</v>
       </c>
       <c r="C125" t="s">
-        <v>131</v>
+        <v>631</v>
       </c>
       <c r="D125" t="s">
-        <v>386</v>
+        <v>732</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6126,22 +5803,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>267</v>
+        <v>751</v>
       </c>
       <c r="B126" t="s">
-        <v>387</v>
+        <v>752</v>
       </c>
       <c r="C126" t="s">
-        <v>269</v>
+        <v>753</v>
       </c>
       <c r="D126" t="s">
-        <v>269</v>
+        <v>754</v>
       </c>
       <c r="E126" t="s">
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6149,22 +5826,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>205</v>
+        <v>636</v>
       </c>
       <c r="B127" t="s">
-        <v>388</v>
+        <v>733</v>
       </c>
       <c r="C127" t="s">
-        <v>207</v>
+        <v>638</v>
       </c>
       <c r="D127" t="s">
-        <v>208</v>
+        <v>734</v>
       </c>
       <c r="E127" t="s">
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -6172,22 +5849,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>389</v>
+        <v>569</v>
       </c>
       <c r="B128" t="s">
-        <v>390</v>
+        <v>694</v>
       </c>
       <c r="C128" t="s">
-        <v>391</v>
+        <v>828</v>
       </c>
       <c r="D128" t="s">
-        <v>392</v>
+        <v>695</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6195,22 +5872,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="B129" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="C129" t="s">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="D129" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -6218,22 +5895,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>52</v>
+        <v>580</v>
       </c>
       <c r="B130" t="s">
-        <v>395</v>
+        <v>696</v>
       </c>
       <c r="C130" t="s">
-        <v>54</v>
+        <v>829</v>
       </c>
       <c r="D130" t="s">
-        <v>54</v>
+        <v>697</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -6241,22 +5918,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B131" t="s">
-        <v>396</v>
+        <v>298</v>
       </c>
       <c r="C131" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D131" t="s">
-        <v>397</v>
+        <v>229</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -6264,22 +5941,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>398</v>
+        <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="C132" t="s">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="D132" t="s">
-        <v>401</v>
+        <v>300</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6287,22 +5964,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="B133" t="s">
-        <v>402</v>
+        <v>301</v>
       </c>
       <c r="C133" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="D133" t="s">
-        <v>403</v>
+        <v>89</v>
       </c>
       <c r="E133" t="s">
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -6310,22 +5987,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>404</v>
+        <v>302</v>
       </c>
       <c r="B134" t="s">
-        <v>405</v>
+        <v>303</v>
       </c>
       <c r="C134" t="s">
-        <v>406</v>
+        <v>304</v>
       </c>
       <c r="D134" t="s">
-        <v>407</v>
+        <v>305</v>
       </c>
       <c r="E134" t="s">
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -6333,22 +6010,22 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="B135" t="s">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="C135" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="D135" t="s">
-        <v>409</v>
+        <v>235</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -6356,22 +6033,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>531</v>
       </c>
       <c r="B136" t="s">
-        <v>410</v>
+        <v>673</v>
       </c>
       <c r="C136" t="s">
-        <v>153</v>
+        <v>533</v>
       </c>
       <c r="D136" t="s">
-        <v>411</v>
+        <v>674</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -6379,22 +6056,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B137" t="s">
-        <v>412</v>
+        <v>308</v>
       </c>
       <c r="C137" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D137" t="s">
-        <v>413</v>
+        <v>310</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -6402,22 +6079,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="B138" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="C138" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="D138" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -6425,22 +6102,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>415</v>
+        <v>313</v>
       </c>
       <c r="C139" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D139" t="s">
-        <v>416</v>
+        <v>131</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -6448,22 +6125,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>417</v>
+        <v>831</v>
       </c>
       <c r="B140" t="s">
-        <v>418</v>
+        <v>832</v>
       </c>
       <c r="C140" t="s">
-        <v>419</v>
+        <v>833</v>
       </c>
       <c r="D140" t="s">
-        <v>420</v>
+        <v>834</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -6471,22 +6148,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>421</v>
+        <v>240</v>
       </c>
       <c r="B141" t="s">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="C141" t="s">
-        <v>423</v>
+        <v>242</v>
       </c>
       <c r="D141" t="s">
-        <v>424</v>
+        <v>315</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -6494,22 +6171,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>425</v>
+        <v>244</v>
       </c>
       <c r="B142" t="s">
-        <v>426</v>
+        <v>316</v>
       </c>
       <c r="C142" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
       <c r="D142" t="s">
-        <v>427</v>
+        <v>317</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -6517,22 +6194,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>428</v>
+        <v>598</v>
       </c>
       <c r="B143" t="s">
-        <v>429</v>
+        <v>710</v>
       </c>
       <c r="C143" t="s">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="D143" t="s">
-        <v>430</v>
+        <v>711</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -6540,22 +6217,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>431</v>
+        <v>318</v>
       </c>
       <c r="B144" t="s">
-        <v>432</v>
+        <v>319</v>
       </c>
       <c r="C144" t="s">
-        <v>433</v>
+        <v>320</v>
       </c>
       <c r="D144" t="s">
-        <v>433</v>
+        <v>321</v>
       </c>
       <c r="E144" t="s">
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -6563,22 +6240,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>434</v>
+        <v>136</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="C145" t="s">
-        <v>435</v>
+        <v>138</v>
       </c>
       <c r="D145" t="s">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -6586,22 +6263,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>436</v>
+        <v>324</v>
       </c>
       <c r="B146" t="s">
-        <v>437</v>
+        <v>325</v>
       </c>
       <c r="C146" t="s">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="D146" t="s">
-        <v>439</v>
+        <v>327</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -6609,22 +6286,22 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>440</v>
+        <v>252</v>
       </c>
       <c r="B147" t="s">
-        <v>441</v>
+        <v>328</v>
       </c>
       <c r="C147" t="s">
-        <v>442</v>
+        <v>254</v>
       </c>
       <c r="D147" t="s">
-        <v>443</v>
+        <v>254</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6632,22 +6309,22 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>444</v>
+        <v>329</v>
       </c>
       <c r="B148" t="s">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="C148" t="s">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="D148" t="s">
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -6655,22 +6332,22 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>448</v>
+        <v>738</v>
       </c>
       <c r="B149" t="s">
-        <v>449</v>
+        <v>739</v>
       </c>
       <c r="C149" t="s">
-        <v>450</v>
+        <v>835</v>
       </c>
       <c r="D149" t="s">
-        <v>451</v>
+        <v>740</v>
       </c>
       <c r="E149" t="s">
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -6678,22 +6355,22 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>452</v>
+        <v>333</v>
       </c>
       <c r="B150" t="s">
-        <v>453</v>
+        <v>334</v>
       </c>
       <c r="C150" t="s">
-        <v>454</v>
+        <v>335</v>
       </c>
       <c r="D150" t="s">
-        <v>455</v>
+        <v>336</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -6701,22 +6378,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>456</v>
+        <v>337</v>
       </c>
       <c r="B151" t="s">
-        <v>457</v>
+        <v>338</v>
       </c>
       <c r="C151" t="s">
-        <v>458</v>
+        <v>339</v>
       </c>
       <c r="D151" t="s">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -6724,22 +6401,22 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>460</v>
+        <v>341</v>
       </c>
       <c r="B152" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
       <c r="C152" t="s">
-        <v>462</v>
+        <v>343</v>
       </c>
       <c r="D152" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
       <c r="E152" t="s">
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -6747,22 +6424,22 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
       <c r="B153" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="C153" t="s">
-        <v>465</v>
+        <v>347</v>
       </c>
       <c r="D153" t="s">
-        <v>124</v>
+        <v>348</v>
       </c>
       <c r="E153" t="s">
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -6770,22 +6447,22 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>466</v>
+        <v>62</v>
       </c>
       <c r="B154" t="s">
-        <v>126</v>
+        <v>349</v>
       </c>
       <c r="C154" t="s">
-        <v>467</v>
+        <v>64</v>
       </c>
       <c r="D154" t="s">
-        <v>128</v>
+        <v>350</v>
       </c>
       <c r="E154" t="s">
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -6793,22 +6470,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>468</v>
+        <v>351</v>
       </c>
       <c r="B155" t="s">
-        <v>469</v>
+        <v>352</v>
       </c>
       <c r="C155" t="s">
-        <v>470</v>
+        <v>353</v>
       </c>
       <c r="D155" t="s">
-        <v>471</v>
+        <v>354</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -6816,16 +6493,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>472</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>355</v>
       </c>
       <c r="C156" t="s">
-        <v>473</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="E156" t="s">
         <v>10</v>
@@ -6839,16 +6516,16 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>474</v>
+        <v>264</v>
       </c>
       <c r="B157" t="s">
-        <v>475</v>
+        <v>356</v>
       </c>
       <c r="C157" t="s">
-        <v>476</v>
+        <v>266</v>
       </c>
       <c r="D157" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
       <c r="E157" t="s">
         <v>10</v>
@@ -6862,16 +6539,16 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>478</v>
+        <v>358</v>
       </c>
       <c r="B158" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="C158" t="s">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D158" t="s">
-        <v>481</v>
+        <v>361</v>
       </c>
       <c r="E158" t="s">
         <v>10</v>
@@ -6885,16 +6562,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>129</v>
+        <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>482</v>
+        <v>362</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="D159" t="s">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="E159" t="s">
         <v>10</v>
@@ -6908,16 +6585,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>484</v>
+        <v>122</v>
       </c>
       <c r="B160" t="s">
-        <v>485</v>
+        <v>366</v>
       </c>
       <c r="C160" t="s">
-        <v>486</v>
+        <v>123</v>
       </c>
       <c r="D160" t="s">
-        <v>486</v>
+        <v>367</v>
       </c>
       <c r="E160" t="s">
         <v>10</v>
@@ -6931,16 +6608,16 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>487</v>
+        <v>252</v>
       </c>
       <c r="B161" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
       <c r="C161" t="s">
-        <v>489</v>
+        <v>254</v>
       </c>
       <c r="D161" t="s">
-        <v>490</v>
+        <v>254</v>
       </c>
       <c r="E161" t="s">
         <v>10</v>
@@ -6954,22 +6631,22 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>491</v>
+        <v>767</v>
       </c>
       <c r="B162" t="s">
-        <v>159</v>
+        <v>768</v>
       </c>
       <c r="C162" t="s">
-        <v>492</v>
+        <v>769</v>
       </c>
       <c r="D162" t="s">
-        <v>161</v>
+        <v>770</v>
       </c>
       <c r="E162" t="s">
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -6977,22 +6654,22 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>493</v>
+        <v>194</v>
       </c>
       <c r="B163" t="s">
-        <v>494</v>
+        <v>369</v>
       </c>
       <c r="C163" t="s">
-        <v>495</v>
+        <v>196</v>
       </c>
       <c r="D163" t="s">
-        <v>496</v>
+        <v>197</v>
       </c>
       <c r="E163" t="s">
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -7000,22 +6677,22 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>497</v>
+        <v>370</v>
       </c>
       <c r="B164" t="s">
-        <v>498</v>
+        <v>371</v>
       </c>
       <c r="C164" t="s">
-        <v>499</v>
+        <v>372</v>
       </c>
       <c r="D164" t="s">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="E164" t="s">
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -7023,22 +6700,22 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>501</v>
+        <v>202</v>
       </c>
       <c r="B165" t="s">
-        <v>114</v>
+        <v>374</v>
       </c>
       <c r="C165" t="s">
-        <v>502</v>
+        <v>204</v>
       </c>
       <c r="D165" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="E165" t="s">
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -7046,22 +6723,22 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>504</v>
+        <v>51</v>
       </c>
       <c r="B166" t="s">
-        <v>505</v>
+        <v>376</v>
       </c>
       <c r="C166" t="s">
-        <v>506</v>
+        <v>53</v>
       </c>
       <c r="D166" t="s">
-        <v>507</v>
+        <v>53</v>
       </c>
       <c r="E166" t="s">
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -7069,22 +6746,22 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>508</v>
+        <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>29</v>
+        <v>377</v>
       </c>
       <c r="C167" t="s">
-        <v>509</v>
+        <v>71</v>
       </c>
       <c r="D167" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="E167" t="s">
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -7092,22 +6769,22 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>510</v>
+        <v>379</v>
       </c>
       <c r="B168" t="s">
-        <v>511</v>
+        <v>380</v>
       </c>
       <c r="C168" t="s">
-        <v>512</v>
+        <v>381</v>
       </c>
       <c r="D168" t="s">
-        <v>513</v>
+        <v>382</v>
       </c>
       <c r="E168" t="s">
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -7115,22 +6792,22 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>514</v>
+        <v>236</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="C169" t="s">
-        <v>515</v>
+        <v>238</v>
       </c>
       <c r="D169" t="s">
-        <v>185</v>
+        <v>384</v>
       </c>
       <c r="E169" t="s">
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -7138,22 +6815,22 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>516</v>
+        <v>385</v>
       </c>
       <c r="B170" t="s">
-        <v>37</v>
+        <v>386</v>
       </c>
       <c r="C170" t="s">
-        <v>517</v>
+        <v>387</v>
       </c>
       <c r="D170" t="s">
-        <v>39</v>
+        <v>388</v>
       </c>
       <c r="E170" t="s">
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -7161,22 +6838,22 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>518</v>
+        <v>248</v>
       </c>
       <c r="B171" t="s">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="C171" t="s">
-        <v>519</v>
+        <v>250</v>
       </c>
       <c r="D171" t="s">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="E171" t="s">
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -7184,22 +6861,22 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>520</v>
+        <v>140</v>
       </c>
       <c r="B172" t="s">
-        <v>521</v>
+        <v>391</v>
       </c>
       <c r="C172" t="s">
-        <v>522</v>
+        <v>142</v>
       </c>
       <c r="D172" t="s">
-        <v>523</v>
+        <v>392</v>
       </c>
       <c r="E172" t="s">
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -7207,22 +6884,22 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>524</v>
+        <v>286</v>
       </c>
       <c r="B173" t="s">
-        <v>525</v>
+        <v>393</v>
       </c>
       <c r="C173" t="s">
-        <v>526</v>
+        <v>288</v>
       </c>
       <c r="D173" t="s">
-        <v>526</v>
+        <v>394</v>
       </c>
       <c r="E173" t="s">
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -7230,22 +6907,22 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>527</v>
+        <v>216</v>
       </c>
       <c r="B174" t="s">
-        <v>528</v>
+        <v>395</v>
       </c>
       <c r="C174" t="s">
-        <v>529</v>
+        <v>218</v>
       </c>
       <c r="D174" t="s">
-        <v>530</v>
+        <v>219</v>
       </c>
       <c r="E174" t="s">
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -7253,22 +6930,22 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>531</v>
+        <v>66</v>
       </c>
       <c r="B175" t="s">
-        <v>532</v>
+        <v>396</v>
       </c>
       <c r="C175" t="s">
-        <v>533</v>
+        <v>68</v>
       </c>
       <c r="D175" t="s">
-        <v>534</v>
+        <v>397</v>
       </c>
       <c r="E175" t="s">
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -7276,22 +6953,22 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>535</v>
+        <v>398</v>
       </c>
       <c r="B176" t="s">
-        <v>536</v>
+        <v>399</v>
       </c>
       <c r="C176" t="s">
-        <v>537</v>
+        <v>400</v>
       </c>
       <c r="D176" t="s">
-        <v>538</v>
+        <v>401</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -7299,16 +6976,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>539</v>
+        <v>402</v>
       </c>
       <c r="B177" t="s">
-        <v>540</v>
+        <v>403</v>
       </c>
       <c r="C177" t="s">
-        <v>541</v>
+        <v>404</v>
       </c>
       <c r="D177" t="s">
-        <v>542</v>
+        <v>405</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
@@ -7322,16 +6999,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>543</v>
+        <v>836</v>
       </c>
       <c r="B178" t="s">
-        <v>544</v>
+        <v>406</v>
       </c>
       <c r="C178" t="s">
-        <v>545</v>
+        <v>837</v>
       </c>
       <c r="D178" t="s">
-        <v>546</v>
+        <v>837</v>
       </c>
       <c r="E178" t="s">
         <v>10</v>
@@ -7345,16 +7022,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>547</v>
+        <v>407</v>
       </c>
       <c r="B179" t="s">
-        <v>91</v>
+        <v>408</v>
       </c>
       <c r="C179" t="s">
-        <v>548</v>
+        <v>409</v>
       </c>
       <c r="D179" t="s">
-        <v>93</v>
+        <v>409</v>
       </c>
       <c r="E179" t="s">
         <v>10</v>
@@ -7368,16 +7045,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>549</v>
+        <v>410</v>
       </c>
       <c r="B180" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>550</v>
+        <v>411</v>
       </c>
       <c r="D180" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="E180" t="s">
         <v>10</v>
@@ -7391,16 +7068,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>551</v>
+        <v>414</v>
       </c>
       <c r="B181" t="s">
-        <v>552</v>
+        <v>415</v>
       </c>
       <c r="C181" t="s">
-        <v>553</v>
+        <v>416</v>
       </c>
       <c r="D181" t="s">
-        <v>553</v>
+        <v>417</v>
       </c>
       <c r="E181" t="s">
         <v>10</v>
@@ -7414,16 +7091,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>554</v>
+        <v>421</v>
       </c>
       <c r="B182" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C182" t="s">
-        <v>555</v>
+        <v>422</v>
       </c>
       <c r="D182" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E182" t="s">
         <v>10</v>
@@ -7437,16 +7114,16 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>556</v>
+        <v>423</v>
       </c>
       <c r="B183" t="s">
-        <v>557</v>
+        <v>119</v>
       </c>
       <c r="C183" t="s">
-        <v>558</v>
+        <v>424</v>
       </c>
       <c r="D183" t="s">
-        <v>559</v>
+        <v>121</v>
       </c>
       <c r="E183" t="s">
         <v>10</v>
@@ -7460,16 +7137,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>560</v>
+        <v>428</v>
       </c>
       <c r="B184" t="s">
-        <v>561</v>
+        <v>164</v>
       </c>
       <c r="C184" t="s">
-        <v>562</v>
+        <v>429</v>
       </c>
       <c r="D184" t="s">
-        <v>563</v>
+        <v>166</v>
       </c>
       <c r="E184" t="s">
         <v>10</v>
@@ -7483,16 +7160,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="B185" t="s">
-        <v>565</v>
+        <v>838</v>
       </c>
       <c r="C185" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="D185" t="s">
-        <v>567</v>
+        <v>839</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
@@ -7506,16 +7183,16 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>568</v>
+        <v>840</v>
       </c>
       <c r="B186" t="s">
-        <v>569</v>
+        <v>841</v>
       </c>
       <c r="C186" t="s">
-        <v>570</v>
+        <v>842</v>
       </c>
       <c r="D186" t="s">
-        <v>571</v>
+        <v>843</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
@@ -7529,16 +7206,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>572</v>
+        <v>433</v>
       </c>
       <c r="B187" t="s">
-        <v>573</v>
+        <v>148</v>
       </c>
       <c r="C187" t="s">
-        <v>574</v>
+        <v>434</v>
       </c>
       <c r="D187" t="s">
-        <v>575</v>
+        <v>150</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
@@ -7552,16 +7229,16 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>576</v>
+        <v>435</v>
       </c>
       <c r="B188" t="s">
-        <v>577</v>
+        <v>436</v>
       </c>
       <c r="C188" t="s">
-        <v>578</v>
+        <v>437</v>
       </c>
       <c r="D188" t="s">
-        <v>579</v>
+        <v>438</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
@@ -7575,16 +7252,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>580</v>
+        <v>439</v>
       </c>
       <c r="B189" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="C189" t="s">
-        <v>581</v>
+        <v>440</v>
       </c>
       <c r="D189" t="s">
-        <v>157</v>
+        <v>441</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
@@ -7598,16 +7275,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>582</v>
+        <v>445</v>
       </c>
       <c r="B190" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="C190" t="s">
-        <v>583</v>
+        <v>446</v>
       </c>
       <c r="D190" t="s">
-        <v>584</v>
+        <v>31</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
@@ -7621,16 +7298,16 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>585</v>
+        <v>447</v>
       </c>
       <c r="B191" t="s">
-        <v>171</v>
+        <v>448</v>
       </c>
       <c r="C191" t="s">
-        <v>586</v>
+        <v>449</v>
       </c>
       <c r="D191" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
       <c r="E191" t="s">
         <v>10</v>
@@ -7644,16 +7321,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>587</v>
+        <v>451</v>
       </c>
       <c r="B192" t="s">
-        <v>588</v>
+        <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>589</v>
+        <v>452</v>
       </c>
       <c r="D192" t="s">
-        <v>590</v>
+        <v>174</v>
       </c>
       <c r="E192" t="s">
         <v>10</v>
@@ -7667,16 +7344,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>591</v>
+        <v>453</v>
       </c>
       <c r="B193" t="s">
-        <v>592</v>
+        <v>37</v>
       </c>
       <c r="C193" t="s">
-        <v>593</v>
+        <v>454</v>
       </c>
       <c r="D193" t="s">
-        <v>594</v>
+        <v>39</v>
       </c>
       <c r="E193" t="s">
         <v>10</v>
@@ -7690,16 +7367,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>595</v>
+        <v>455</v>
       </c>
       <c r="B194" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C194" t="s">
-        <v>596</v>
+        <v>456</v>
       </c>
       <c r="D194" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="E194" t="s">
         <v>10</v>
@@ -7713,16 +7390,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>597</v>
+        <v>457</v>
       </c>
       <c r="B195" t="s">
-        <v>187</v>
+        <v>458</v>
       </c>
       <c r="C195" t="s">
-        <v>598</v>
+        <v>459</v>
       </c>
       <c r="D195" t="s">
-        <v>189</v>
+        <v>459</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
@@ -7736,16 +7413,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>599</v>
+        <v>844</v>
       </c>
       <c r="B196" t="s">
-        <v>179</v>
+        <v>845</v>
       </c>
       <c r="C196" t="s">
-        <v>600</v>
+        <v>846</v>
       </c>
       <c r="D196" t="s">
-        <v>181</v>
+        <v>847</v>
       </c>
       <c r="E196" t="s">
         <v>10</v>
@@ -7759,16 +7436,16 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>601</v>
+        <v>460</v>
       </c>
       <c r="B197" t="s">
-        <v>602</v>
+        <v>461</v>
       </c>
       <c r="C197" t="s">
-        <v>603</v>
+        <v>462</v>
       </c>
       <c r="D197" t="s">
-        <v>604</v>
+        <v>463</v>
       </c>
       <c r="E197" t="s">
         <v>10</v>
@@ -7782,22 +7459,22 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>605</v>
+        <v>464</v>
       </c>
       <c r="B198" t="s">
-        <v>606</v>
+        <v>465</v>
       </c>
       <c r="C198" t="s">
-        <v>607</v>
+        <v>466</v>
       </c>
       <c r="D198" t="s">
-        <v>608</v>
+        <v>467</v>
       </c>
       <c r="E198" t="s">
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -7805,22 +7482,22 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>609</v>
+        <v>468</v>
       </c>
       <c r="B199" t="s">
-        <v>610</v>
+        <v>469</v>
       </c>
       <c r="C199" t="s">
-        <v>611</v>
+        <v>470</v>
       </c>
       <c r="D199" t="s">
-        <v>612</v>
+        <v>471</v>
       </c>
       <c r="E199" t="s">
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -7828,22 +7505,22 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>613</v>
+        <v>848</v>
       </c>
       <c r="B200" t="s">
-        <v>614</v>
+        <v>849</v>
       </c>
       <c r="C200" t="s">
-        <v>615</v>
+        <v>850</v>
       </c>
       <c r="D200" t="s">
-        <v>616</v>
+        <v>851</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -7851,22 +7528,22 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="B201" t="s">
-        <v>617</v>
+        <v>473</v>
       </c>
       <c r="C201" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="D201" t="s">
-        <v>618</v>
+        <v>475</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -7874,22 +7551,22 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>619</v>
+        <v>479</v>
       </c>
       <c r="B202" t="s">
-        <v>620</v>
+        <v>84</v>
       </c>
       <c r="C202" t="s">
-        <v>621</v>
+        <v>480</v>
       </c>
       <c r="D202" t="s">
-        <v>622</v>
+        <v>86</v>
       </c>
       <c r="E202" t="s">
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -7897,22 +7574,22 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="B203" t="s">
-        <v>623</v>
+        <v>91</v>
       </c>
       <c r="C203" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="D203" t="s">
-        <v>624</v>
+        <v>93</v>
       </c>
       <c r="E203" t="s">
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -7920,22 +7597,22 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="B204" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
       <c r="C204" t="s">
-        <v>627</v>
+        <v>485</v>
       </c>
       <c r="D204" t="s">
-        <v>628</v>
+        <v>485</v>
       </c>
       <c r="E204" t="s">
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -7943,22 +7620,22 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>629</v>
+        <v>486</v>
       </c>
       <c r="B205" t="s">
-        <v>630</v>
+        <v>111</v>
       </c>
       <c r="C205" t="s">
-        <v>631</v>
+        <v>487</v>
       </c>
       <c r="D205" t="s">
-        <v>632</v>
+        <v>113</v>
       </c>
       <c r="E205" t="s">
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -7966,22 +7643,22 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>633</v>
+        <v>488</v>
       </c>
       <c r="B206" t="s">
-        <v>634</v>
+        <v>489</v>
       </c>
       <c r="C206" t="s">
-        <v>635</v>
+        <v>490</v>
       </c>
       <c r="D206" t="s">
-        <v>636</v>
+        <v>491</v>
       </c>
       <c r="E206" t="s">
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -7989,22 +7666,22 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="B207" t="s">
-        <v>637</v>
+        <v>496</v>
       </c>
       <c r="C207" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="D207" t="s">
-        <v>638</v>
+        <v>498</v>
       </c>
       <c r="E207" t="s">
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -8012,22 +7689,22 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>601</v>
+        <v>499</v>
       </c>
       <c r="B208" t="s">
-        <v>639</v>
+        <v>500</v>
       </c>
       <c r="C208" t="s">
-        <v>603</v>
+        <v>501</v>
       </c>
       <c r="D208" t="s">
-        <v>640</v>
+        <v>502</v>
       </c>
       <c r="E208" t="s">
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -8035,22 +7712,22 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>641</v>
+        <v>503</v>
       </c>
       <c r="B209" t="s">
-        <v>642</v>
+        <v>504</v>
       </c>
       <c r="C209" t="s">
-        <v>643</v>
+        <v>505</v>
       </c>
       <c r="D209" t="s">
-        <v>644</v>
+        <v>506</v>
       </c>
       <c r="E209" t="s">
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -8058,22 +7735,22 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>645</v>
+        <v>507</v>
       </c>
       <c r="B210" t="s">
-        <v>646</v>
+        <v>144</v>
       </c>
       <c r="C210" t="s">
-        <v>647</v>
+        <v>508</v>
       </c>
       <c r="D210" t="s">
-        <v>648</v>
+        <v>146</v>
       </c>
       <c r="E210" t="s">
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -8081,22 +7758,22 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>649</v>
+        <v>509</v>
       </c>
       <c r="B211" t="s">
-        <v>650</v>
+        <v>156</v>
       </c>
       <c r="C211" t="s">
-        <v>651</v>
+        <v>510</v>
       </c>
       <c r="D211" t="s">
-        <v>651</v>
+        <v>511</v>
       </c>
       <c r="E211" t="s">
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -8104,22 +7781,22 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>652</v>
+        <v>512</v>
       </c>
       <c r="B212" t="s">
-        <v>653</v>
+        <v>160</v>
       </c>
       <c r="C212" t="s">
-        <v>654</v>
+        <v>513</v>
       </c>
       <c r="D212" t="s">
-        <v>654</v>
+        <v>162</v>
       </c>
       <c r="E212" t="s">
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -8127,22 +7804,22 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>655</v>
+        <v>514</v>
       </c>
       <c r="B213" t="s">
-        <v>656</v>
+        <v>515</v>
       </c>
       <c r="C213" t="s">
-        <v>657</v>
+        <v>516</v>
       </c>
       <c r="D213" t="s">
-        <v>658</v>
+        <v>517</v>
       </c>
       <c r="E213" t="s">
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -8150,22 +7827,22 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>659</v>
+        <v>521</v>
       </c>
       <c r="B214" t="s">
-        <v>660</v>
+        <v>55</v>
       </c>
       <c r="C214" t="s">
-        <v>661</v>
+        <v>522</v>
       </c>
       <c r="D214" t="s">
-        <v>662</v>
+        <v>57</v>
       </c>
       <c r="E214" t="s">
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -8173,22 +7850,22 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
       <c r="B215" t="s">
-        <v>663</v>
+        <v>176</v>
       </c>
       <c r="C215" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="D215" t="s">
-        <v>459</v>
+        <v>178</v>
       </c>
       <c r="E215" t="s">
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -8196,22 +7873,22 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
-        <v>664</v>
+        <v>525</v>
       </c>
       <c r="B216" t="s">
-        <v>665</v>
+        <v>168</v>
       </c>
       <c r="C216" t="s">
-        <v>666</v>
+        <v>526</v>
       </c>
       <c r="D216" t="s">
-        <v>667</v>
+        <v>170</v>
       </c>
       <c r="E216" t="s">
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -8219,22 +7896,22 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="B217" t="s">
-        <v>668</v>
+        <v>528</v>
       </c>
       <c r="C217" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="D217" t="s">
-        <v>669</v>
+        <v>530</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -8242,22 +7919,22 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>670</v>
+        <v>535</v>
       </c>
       <c r="B218" t="s">
-        <v>671</v>
+        <v>536</v>
       </c>
       <c r="C218" t="s">
-        <v>672</v>
+        <v>537</v>
       </c>
       <c r="D218" t="s">
-        <v>673</v>
+        <v>538</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -8265,22 +7942,22 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>674</v>
+        <v>539</v>
       </c>
       <c r="B219" t="s">
-        <v>675</v>
+        <v>540</v>
       </c>
       <c r="C219" t="s">
-        <v>676</v>
+        <v>541</v>
       </c>
       <c r="D219" t="s">
-        <v>677</v>
+        <v>542</v>
       </c>
       <c r="E219" t="s">
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -8288,22 +7965,22 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>678</v>
+        <v>836</v>
       </c>
       <c r="B220" t="s">
-        <v>679</v>
+        <v>543</v>
       </c>
       <c r="C220" t="s">
-        <v>680</v>
+        <v>837</v>
       </c>
       <c r="D220" t="s">
-        <v>681</v>
+        <v>852</v>
       </c>
       <c r="E220" t="s">
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -8311,22 +7988,22 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>682</v>
+        <v>544</v>
       </c>
       <c r="B221" t="s">
-        <v>683</v>
+        <v>545</v>
       </c>
       <c r="C221" t="s">
-        <v>684</v>
+        <v>546</v>
       </c>
       <c r="D221" t="s">
-        <v>685</v>
+        <v>547</v>
       </c>
       <c r="E221" t="s">
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -8334,22 +8011,22 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>686</v>
+        <v>548</v>
       </c>
       <c r="B222" t="s">
-        <v>687</v>
+        <v>549</v>
       </c>
       <c r="C222" t="s">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="D222" t="s">
-        <v>689</v>
+        <v>551</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -8357,22 +8034,22 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="B223" t="s">
-        <v>690</v>
+        <v>553</v>
       </c>
       <c r="C223" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="D223" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="E223" t="s">
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -8380,22 +8057,22 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>691</v>
+        <v>527</v>
       </c>
       <c r="B224" t="s">
-        <v>692</v>
+        <v>556</v>
       </c>
       <c r="C224" t="s">
-        <v>693</v>
+        <v>529</v>
       </c>
       <c r="D224" t="s">
-        <v>694</v>
+        <v>557</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -8403,22 +8080,22 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>695</v>
+        <v>558</v>
       </c>
       <c r="B225" t="s">
-        <v>696</v>
+        <v>559</v>
       </c>
       <c r="C225" t="s">
-        <v>697</v>
+        <v>560</v>
       </c>
       <c r="D225" t="s">
-        <v>698</v>
+        <v>561</v>
       </c>
       <c r="E225" t="s">
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -8426,22 +8103,22 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>699</v>
+        <v>562</v>
       </c>
       <c r="B226" t="s">
-        <v>700</v>
+        <v>563</v>
       </c>
       <c r="C226" t="s">
-        <v>701</v>
+        <v>564</v>
       </c>
       <c r="D226" t="s">
-        <v>702</v>
+        <v>565</v>
       </c>
       <c r="E226" t="s">
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -8449,22 +8126,22 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>703</v>
+        <v>566</v>
       </c>
       <c r="B227" t="s">
-        <v>704</v>
+        <v>567</v>
       </c>
       <c r="C227" t="s">
-        <v>705</v>
+        <v>568</v>
       </c>
       <c r="D227" t="s">
-        <v>706</v>
+        <v>568</v>
       </c>
       <c r="E227" t="s">
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -8472,22 +8149,22 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>707</v>
+        <v>572</v>
       </c>
       <c r="B228" t="s">
-        <v>708</v>
+        <v>573</v>
       </c>
       <c r="C228" t="s">
-        <v>709</v>
+        <v>574</v>
       </c>
       <c r="D228" t="s">
-        <v>710</v>
+        <v>575</v>
       </c>
       <c r="E228" t="s">
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -8495,22 +8172,22 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>711</v>
+        <v>576</v>
       </c>
       <c r="B229" t="s">
-        <v>712</v>
+        <v>577</v>
       </c>
       <c r="C229" t="s">
-        <v>713</v>
+        <v>578</v>
       </c>
       <c r="D229" t="s">
-        <v>714</v>
+        <v>579</v>
       </c>
       <c r="E229" t="s">
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -8518,22 +8195,22 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>715</v>
+        <v>583</v>
       </c>
       <c r="B230" t="s">
-        <v>716</v>
+        <v>584</v>
       </c>
       <c r="C230" t="s">
-        <v>717</v>
+        <v>585</v>
       </c>
       <c r="D230" t="s">
-        <v>718</v>
+        <v>586</v>
       </c>
       <c r="E230" t="s">
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -8541,22 +8218,22 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>719</v>
+        <v>590</v>
       </c>
       <c r="B231" t="s">
-        <v>720</v>
+        <v>591</v>
       </c>
       <c r="C231" t="s">
-        <v>721</v>
+        <v>592</v>
       </c>
       <c r="D231" t="s">
-        <v>722</v>
+        <v>593</v>
       </c>
       <c r="E231" t="s">
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -8564,22 +8241,22 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>723</v>
+        <v>594</v>
       </c>
       <c r="B232" t="s">
-        <v>724</v>
+        <v>595</v>
       </c>
       <c r="C232" t="s">
-        <v>725</v>
+        <v>596</v>
       </c>
       <c r="D232" t="s">
-        <v>726</v>
+        <v>597</v>
       </c>
       <c r="E232" t="s">
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -8587,22 +8264,22 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>727</v>
+        <v>602</v>
       </c>
       <c r="B233" t="s">
-        <v>728</v>
+        <v>603</v>
       </c>
       <c r="C233" t="s">
-        <v>729</v>
+        <v>604</v>
       </c>
       <c r="D233" t="s">
-        <v>730</v>
+        <v>605</v>
       </c>
       <c r="E233" t="s">
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -8610,22 +8287,22 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>524</v>
+        <v>606</v>
       </c>
       <c r="B234" t="s">
-        <v>731</v>
+        <v>607</v>
       </c>
       <c r="C234" t="s">
-        <v>526</v>
+        <v>608</v>
       </c>
       <c r="D234" t="s">
-        <v>732</v>
+        <v>609</v>
       </c>
       <c r="E234" t="s">
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -8633,22 +8310,22 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>527</v>
+        <v>610</v>
       </c>
       <c r="B235" t="s">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="C235" t="s">
-        <v>529</v>
+        <v>612</v>
       </c>
       <c r="D235" t="s">
-        <v>734</v>
+        <v>613</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -8656,22 +8333,22 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>531</v>
+        <v>614</v>
       </c>
       <c r="B236" t="s">
-        <v>735</v>
+        <v>615</v>
       </c>
       <c r="C236" t="s">
-        <v>533</v>
+        <v>616</v>
       </c>
       <c r="D236" t="s">
-        <v>736</v>
+        <v>617</v>
       </c>
       <c r="E236" t="s">
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -8679,22 +8356,22 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>535</v>
+        <v>618</v>
       </c>
       <c r="B237" t="s">
-        <v>737</v>
+        <v>619</v>
       </c>
       <c r="C237" t="s">
-        <v>537</v>
+        <v>620</v>
       </c>
       <c r="D237" t="s">
-        <v>738</v>
+        <v>621</v>
       </c>
       <c r="E237" t="s">
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -8702,22 +8379,22 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>739</v>
+        <v>625</v>
       </c>
       <c r="B238" t="s">
-        <v>740</v>
+        <v>626</v>
       </c>
       <c r="C238" t="s">
-        <v>741</v>
+        <v>627</v>
       </c>
       <c r="D238" t="s">
-        <v>742</v>
+        <v>628</v>
       </c>
       <c r="E238" t="s">
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -8725,22 +8402,22 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>556</v>
+        <v>457</v>
       </c>
       <c r="B239" t="s">
-        <v>743</v>
+        <v>640</v>
       </c>
       <c r="C239" t="s">
-        <v>558</v>
+        <v>459</v>
       </c>
       <c r="D239" t="s">
-        <v>744</v>
+        <v>641</v>
       </c>
       <c r="E239" t="s">
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -8748,22 +8425,22 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>745</v>
+        <v>460</v>
       </c>
       <c r="B240" t="s">
-        <v>746</v>
+        <v>642</v>
       </c>
       <c r="C240" t="s">
-        <v>747</v>
+        <v>462</v>
       </c>
       <c r="D240" t="s">
-        <v>748</v>
+        <v>643</v>
       </c>
       <c r="E240" t="s">
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -8771,22 +8448,22 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>749</v>
+        <v>464</v>
       </c>
       <c r="B241" t="s">
-        <v>750</v>
+        <v>644</v>
       </c>
       <c r="C241" t="s">
-        <v>751</v>
+        <v>466</v>
       </c>
       <c r="D241" t="s">
-        <v>752</v>
+        <v>645</v>
       </c>
       <c r="E241" t="s">
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -8794,22 +8471,22 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>753</v>
+        <v>468</v>
       </c>
       <c r="B242" t="s">
-        <v>754</v>
+        <v>646</v>
       </c>
       <c r="C242" t="s">
-        <v>755</v>
+        <v>470</v>
       </c>
       <c r="D242" t="s">
-        <v>756</v>
+        <v>647</v>
       </c>
       <c r="E242" t="s">
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -8817,22 +8494,22 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
-        <v>757</v>
+        <v>488</v>
       </c>
       <c r="B243" t="s">
-        <v>758</v>
+        <v>652</v>
       </c>
       <c r="C243" t="s">
-        <v>759</v>
+        <v>490</v>
       </c>
       <c r="D243" t="s">
-        <v>759</v>
+        <v>653</v>
       </c>
       <c r="E243" t="s">
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -8840,22 +8517,22 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
-        <v>760</v>
+        <v>654</v>
       </c>
       <c r="B244" t="s">
-        <v>761</v>
+        <v>655</v>
       </c>
       <c r="C244" t="s">
-        <v>762</v>
+        <v>656</v>
       </c>
       <c r="D244" t="s">
-        <v>763</v>
+        <v>657</v>
       </c>
       <c r="E244" t="s">
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -8863,22 +8540,22 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
-        <v>605</v>
+        <v>658</v>
       </c>
       <c r="B245" t="s">
-        <v>764</v>
+        <v>659</v>
       </c>
       <c r="C245" t="s">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="D245" t="s">
-        <v>765</v>
+        <v>661</v>
       </c>
       <c r="E245" t="s">
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -8886,22 +8563,22 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
-        <v>766</v>
+        <v>662</v>
       </c>
       <c r="B246" t="s">
-        <v>767</v>
+        <v>663</v>
       </c>
       <c r="C246" t="s">
-        <v>768</v>
+        <v>664</v>
       </c>
       <c r="D246" t="s">
-        <v>769</v>
+        <v>665</v>
       </c>
       <c r="E246" t="s">
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -8909,22 +8586,22 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
-        <v>770</v>
+        <v>666</v>
       </c>
       <c r="B247" t="s">
-        <v>771</v>
+        <v>667</v>
       </c>
       <c r="C247" t="s">
-        <v>772</v>
+        <v>668</v>
       </c>
       <c r="D247" t="s">
-        <v>773</v>
+        <v>668</v>
       </c>
       <c r="E247" t="s">
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -8932,22 +8609,22 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
-        <v>774</v>
+        <v>675</v>
       </c>
       <c r="B248" t="s">
-        <v>775</v>
+        <v>269</v>
       </c>
       <c r="C248" t="s">
-        <v>776</v>
+        <v>676</v>
       </c>
       <c r="D248" t="s">
-        <v>777</v>
+        <v>271</v>
       </c>
       <c r="E248" t="s">
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -8955,22 +8632,22 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
-        <v>778</v>
+        <v>402</v>
       </c>
       <c r="B249" t="s">
-        <v>284</v>
+        <v>677</v>
       </c>
       <c r="C249" t="s">
-        <v>779</v>
+        <v>404</v>
       </c>
       <c r="D249" t="s">
-        <v>286</v>
+        <v>678</v>
       </c>
       <c r="E249" t="s">
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -8978,22 +8655,22 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
-        <v>613</v>
+        <v>679</v>
       </c>
       <c r="B250" t="s">
-        <v>780</v>
+        <v>680</v>
       </c>
       <c r="C250" t="s">
-        <v>615</v>
+        <v>681</v>
       </c>
       <c r="D250" t="s">
-        <v>781</v>
+        <v>682</v>
       </c>
       <c r="E250" t="s">
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -9001,22 +8678,22 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
-        <v>421</v>
+        <v>836</v>
       </c>
       <c r="B251" t="s">
-        <v>782</v>
+        <v>853</v>
       </c>
       <c r="C251" t="s">
-        <v>423</v>
+        <v>837</v>
       </c>
       <c r="D251" t="s">
-        <v>783</v>
+        <v>852</v>
       </c>
       <c r="E251" t="s">
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -9024,22 +8701,22 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
-        <v>784</v>
+        <v>544</v>
       </c>
       <c r="B252" t="s">
-        <v>785</v>
+        <v>683</v>
       </c>
       <c r="C252" t="s">
-        <v>786</v>
+        <v>546</v>
       </c>
       <c r="D252" t="s">
-        <v>787</v>
+        <v>684</v>
       </c>
       <c r="E252" t="s">
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -9047,22 +8724,22 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
-        <v>788</v>
+        <v>685</v>
       </c>
       <c r="B253" t="s">
-        <v>789</v>
+        <v>686</v>
       </c>
       <c r="C253" t="s">
-        <v>790</v>
+        <v>687</v>
       </c>
       <c r="D253" t="s">
-        <v>791</v>
+        <v>688</v>
       </c>
       <c r="E253" t="s">
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -9070,22 +8747,22 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
-        <v>425</v>
+        <v>527</v>
       </c>
       <c r="B254" t="s">
-        <v>792</v>
+        <v>689</v>
       </c>
       <c r="C254" t="s">
-        <v>427</v>
+        <v>529</v>
       </c>
       <c r="D254" t="s">
-        <v>618</v>
+        <v>557</v>
       </c>
       <c r="E254" t="s">
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -9093,22 +8770,22 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
-        <v>793</v>
+        <v>558</v>
       </c>
       <c r="B255" t="s">
-        <v>794</v>
+        <v>690</v>
       </c>
       <c r="C255" t="s">
-        <v>795</v>
+        <v>560</v>
       </c>
       <c r="D255" t="s">
-        <v>796</v>
+        <v>691</v>
       </c>
       <c r="E255" t="s">
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -9116,22 +8793,22 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
-        <v>625</v>
+        <v>566</v>
       </c>
       <c r="B256" t="s">
-        <v>797</v>
+        <v>692</v>
       </c>
       <c r="C256" t="s">
-        <v>627</v>
+        <v>568</v>
       </c>
       <c r="D256" t="s">
-        <v>798</v>
+        <v>693</v>
       </c>
       <c r="E256" t="s">
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -9139,22 +8816,22 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
-        <v>436</v>
+        <v>698</v>
       </c>
       <c r="B257" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
       <c r="C257" t="s">
-        <v>438</v>
+        <v>700</v>
       </c>
       <c r="D257" t="s">
-        <v>800</v>
+        <v>701</v>
       </c>
       <c r="E257" t="s">
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -9162,22 +8839,22 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
-        <v>801</v>
+        <v>702</v>
       </c>
       <c r="B258" t="s">
-        <v>802</v>
+        <v>703</v>
       </c>
       <c r="C258" t="s">
-        <v>803</v>
+        <v>704</v>
       </c>
       <c r="D258" t="s">
-        <v>804</v>
+        <v>705</v>
       </c>
       <c r="E258" t="s">
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -9185,22 +8862,22 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B259" t="s">
-        <v>805</v>
+        <v>706</v>
       </c>
       <c r="C259" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="D259" t="s">
-        <v>640</v>
+        <v>707</v>
       </c>
       <c r="E259" t="s">
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -9208,22 +8885,22 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="B260" t="s">
-        <v>806</v>
+        <v>712</v>
       </c>
       <c r="C260" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="D260" t="s">
-        <v>807</v>
+        <v>713</v>
       </c>
       <c r="E260" t="s">
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -9231,22 +8908,22 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
-        <v>440</v>
+        <v>714</v>
       </c>
       <c r="B261" t="s">
-        <v>808</v>
+        <v>338</v>
       </c>
       <c r="C261" t="s">
-        <v>442</v>
+        <v>715</v>
       </c>
       <c r="D261" t="s">
-        <v>442</v>
+        <v>340</v>
       </c>
       <c r="E261" t="s">
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -9254,22 +8931,22 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
-        <v>444</v>
+        <v>716</v>
       </c>
       <c r="B262" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="C262" t="s">
-        <v>446</v>
+        <v>718</v>
       </c>
       <c r="D262" t="s">
-        <v>810</v>
+        <v>719</v>
       </c>
       <c r="E262" t="s">
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -9277,22 +8954,22 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="B263" t="s">
-        <v>811</v>
+        <v>720</v>
       </c>
       <c r="C263" t="s">
-        <v>651</v>
+        <v>620</v>
       </c>
       <c r="D263" t="s">
-        <v>812</v>
+        <v>721</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -9300,22 +8977,22 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="B264" t="s">
-        <v>813</v>
+        <v>724</v>
       </c>
       <c r="C264" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="D264" t="s">
-        <v>814</v>
+        <v>725</v>
       </c>
       <c r="E264" t="s">
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -9323,22 +9000,22 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
-        <v>815</v>
+        <v>726</v>
       </c>
       <c r="B265" t="s">
-        <v>816</v>
+        <v>727</v>
       </c>
       <c r="C265" t="s">
-        <v>817</v>
+        <v>728</v>
       </c>
       <c r="D265" t="s">
-        <v>818</v>
+        <v>728</v>
       </c>
       <c r="E265" t="s">
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -9346,22 +9023,22 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
-        <v>456</v>
+        <v>729</v>
       </c>
       <c r="B266" t="s">
-        <v>819</v>
+        <v>730</v>
       </c>
       <c r="C266" t="s">
-        <v>458</v>
+        <v>854</v>
       </c>
       <c r="D266" t="s">
-        <v>820</v>
+        <v>855</v>
       </c>
       <c r="E266" t="s">
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -9369,22 +9046,22 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
-        <v>664</v>
+        <v>457</v>
       </c>
       <c r="B267" t="s">
-        <v>821</v>
+        <v>735</v>
       </c>
       <c r="C267" t="s">
-        <v>666</v>
+        <v>459</v>
       </c>
       <c r="D267" t="s">
-        <v>822</v>
+        <v>641</v>
       </c>
       <c r="E267" t="s">
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -9392,22 +9069,22 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
-        <v>823</v>
+        <v>460</v>
       </c>
       <c r="B268" t="s">
-        <v>824</v>
+        <v>736</v>
       </c>
       <c r="C268" t="s">
-        <v>825</v>
+        <v>462</v>
       </c>
       <c r="D268" t="s">
-        <v>826</v>
+        <v>737</v>
       </c>
       <c r="E268" t="s">
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -9415,22 +9092,22 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
-        <v>827</v>
+        <v>464</v>
       </c>
       <c r="B269" t="s">
-        <v>828</v>
+        <v>741</v>
       </c>
       <c r="C269" t="s">
-        <v>829</v>
+        <v>466</v>
       </c>
       <c r="D269" t="s">
-        <v>830</v>
+        <v>645</v>
       </c>
       <c r="E269" t="s">
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -9438,22 +9115,22 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B270" t="s">
-        <v>831</v>
+        <v>742</v>
       </c>
       <c r="C270" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D270" t="s">
-        <v>832</v>
+        <v>647</v>
       </c>
       <c r="E270" t="s">
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -9461,22 +9138,22 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
-        <v>833</v>
+        <v>472</v>
       </c>
       <c r="B271" t="s">
-        <v>834</v>
+        <v>745</v>
       </c>
       <c r="C271" t="s">
-        <v>835</v>
+        <v>474</v>
       </c>
       <c r="D271" t="s">
-        <v>836</v>
+        <v>746</v>
       </c>
       <c r="E271" t="s">
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -9484,22 +9161,22 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
       <c r="B272" t="s">
-        <v>837</v>
+        <v>748</v>
       </c>
       <c r="C272" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="D272" t="s">
-        <v>838</v>
+        <v>750</v>
       </c>
       <c r="E272" t="s">
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -9507,22 +9184,22 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
-        <v>674</v>
+        <v>479</v>
       </c>
       <c r="B273" t="s">
-        <v>839</v>
+        <v>299</v>
       </c>
       <c r="C273" t="s">
-        <v>676</v>
+        <v>480</v>
       </c>
       <c r="D273" t="s">
-        <v>840</v>
+        <v>300</v>
       </c>
       <c r="E273" t="s">
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -9530,22 +9207,22 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B274" t="s">
-        <v>841</v>
+        <v>755</v>
       </c>
       <c r="C274" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D274" t="s">
-        <v>842</v>
+        <v>756</v>
       </c>
       <c r="E274" t="s">
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -9553,22 +9230,22 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
-        <v>686</v>
+        <v>757</v>
       </c>
       <c r="B275" t="s">
-        <v>843</v>
+        <v>758</v>
       </c>
       <c r="C275" t="s">
-        <v>688</v>
+        <v>759</v>
       </c>
       <c r="D275" t="s">
-        <v>844</v>
+        <v>760</v>
       </c>
       <c r="E275" t="s">
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -9576,22 +9253,22 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B276" t="s">
-        <v>845</v>
+        <v>761</v>
       </c>
       <c r="C276" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D276" t="s">
-        <v>846</v>
+        <v>762</v>
       </c>
       <c r="E276" t="s">
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -9599,22 +9276,22 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
-        <v>703</v>
+        <v>499</v>
       </c>
       <c r="B277" t="s">
-        <v>847</v>
+        <v>763</v>
       </c>
       <c r="C277" t="s">
-        <v>705</v>
+        <v>501</v>
       </c>
       <c r="D277" t="s">
-        <v>848</v>
+        <v>764</v>
       </c>
       <c r="E277" t="s">
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -9622,22 +9299,22 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
-        <v>849</v>
+        <v>773</v>
       </c>
       <c r="B278" t="s">
-        <v>354</v>
+        <v>774</v>
       </c>
       <c r="C278" t="s">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="D278" t="s">
-        <v>356</v>
+        <v>775</v>
       </c>
       <c r="E278" t="s">
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -9645,22 +9322,22 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
-        <v>851</v>
+        <v>776</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>777</v>
       </c>
       <c r="C279" t="s">
-        <v>852</v>
+        <v>778</v>
       </c>
       <c r="D279" t="s">
-        <v>853</v>
+        <v>778</v>
       </c>
       <c r="E279" t="s">
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -9668,22 +9345,22 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
-        <v>854</v>
+        <v>779</v>
       </c>
       <c r="B280" t="s">
-        <v>855</v>
+        <v>780</v>
       </c>
       <c r="C280" t="s">
-        <v>856</v>
+        <v>781</v>
       </c>
       <c r="D280" t="s">
-        <v>857</v>
+        <v>782</v>
       </c>
       <c r="E280" t="s">
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -9691,22 +9368,22 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
-        <v>707</v>
+        <v>590</v>
       </c>
       <c r="B281" t="s">
-        <v>858</v>
+        <v>783</v>
       </c>
       <c r="C281" t="s">
-        <v>709</v>
+        <v>592</v>
       </c>
       <c r="D281" t="s">
-        <v>859</v>
+        <v>784</v>
       </c>
       <c r="E281" t="s">
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -9714,22 +9391,22 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
-        <v>711</v>
+        <v>785</v>
       </c>
       <c r="B282" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C282" t="s">
-        <v>713</v>
+        <v>856</v>
       </c>
       <c r="D282" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E282" t="s">
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -9737,22 +9414,22 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
-        <v>715</v>
+        <v>787</v>
       </c>
       <c r="B283" t="s">
-        <v>862</v>
+        <v>788</v>
       </c>
       <c r="C283" t="s">
-        <v>717</v>
+        <v>789</v>
       </c>
       <c r="D283" t="s">
-        <v>863</v>
+        <v>790</v>
       </c>
       <c r="E283" t="s">
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -9760,22 +9437,22 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
-        <v>864</v>
+        <v>791</v>
       </c>
       <c r="B284" t="s">
-        <v>865</v>
+        <v>792</v>
       </c>
       <c r="C284" t="s">
-        <v>866</v>
+        <v>793</v>
       </c>
       <c r="D284" t="s">
-        <v>866</v>
+        <v>794</v>
       </c>
       <c r="E284" t="s">
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -9783,875 +9460,24 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
-        <v>867</v>
+        <v>795</v>
       </c>
       <c r="B285" t="s">
-        <v>868</v>
+        <v>796</v>
       </c>
       <c r="C285" t="s">
-        <v>869</v>
+        <v>797</v>
       </c>
       <c r="D285" t="s">
-        <v>870</v>
+        <v>798</v>
       </c>
       <c r="E285" t="s">
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A286" t="s">
-        <v>719</v>
-      </c>
-      <c r="B286" t="s">
-        <v>871</v>
-      </c>
-      <c r="C286" t="s">
-        <v>721</v>
-      </c>
-      <c r="D286" t="s">
-        <v>872</v>
-      </c>
-      <c r="E286" t="s">
-        <v>10</v>
-      </c>
-      <c r="F286" t="s">
-        <v>276</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A287" t="s">
-        <v>727</v>
-      </c>
-      <c r="B287" t="s">
-        <v>873</v>
-      </c>
-      <c r="C287" t="s">
-        <v>729</v>
-      </c>
-      <c r="D287" t="s">
-        <v>874</v>
-      </c>
-      <c r="E287" t="s">
-        <v>10</v>
-      </c>
-      <c r="F287" t="s">
-        <v>276</v>
-      </c>
-      <c r="G287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A288" t="s">
-        <v>524</v>
-      </c>
-      <c r="B288" t="s">
-        <v>875</v>
-      </c>
-      <c r="C288" t="s">
-        <v>526</v>
-      </c>
-      <c r="D288" t="s">
-        <v>732</v>
-      </c>
-      <c r="E288" t="s">
-        <v>10</v>
-      </c>
-      <c r="F288" t="s">
-        <v>276</v>
-      </c>
-      <c r="G288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A289" t="s">
-        <v>527</v>
-      </c>
-      <c r="B289" t="s">
-        <v>876</v>
-      </c>
-      <c r="C289" t="s">
-        <v>529</v>
-      </c>
-      <c r="D289" t="s">
-        <v>877</v>
-      </c>
-      <c r="E289" t="s">
-        <v>10</v>
-      </c>
-      <c r="F289" t="s">
-        <v>276</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A290" t="s">
-        <v>878</v>
-      </c>
-      <c r="B290" t="s">
-        <v>879</v>
-      </c>
-      <c r="C290" t="s">
-        <v>880</v>
-      </c>
-      <c r="D290" t="s">
-        <v>881</v>
-      </c>
-      <c r="E290" t="s">
-        <v>10</v>
-      </c>
-      <c r="F290" t="s">
-        <v>276</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A291" t="s">
-        <v>531</v>
-      </c>
-      <c r="B291" t="s">
-        <v>882</v>
-      </c>
-      <c r="C291" t="s">
-        <v>533</v>
-      </c>
-      <c r="D291" t="s">
-        <v>736</v>
-      </c>
-      <c r="E291" t="s">
-        <v>10</v>
-      </c>
-      <c r="F291" t="s">
-        <v>276</v>
-      </c>
-      <c r="G291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A292" t="s">
-        <v>535</v>
-      </c>
-      <c r="B292" t="s">
-        <v>883</v>
-      </c>
-      <c r="C292" t="s">
-        <v>537</v>
-      </c>
-      <c r="D292" t="s">
-        <v>738</v>
-      </c>
-      <c r="E292" t="s">
-        <v>10</v>
-      </c>
-      <c r="F292" t="s">
-        <v>276</v>
-      </c>
-      <c r="G292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" t="s">
-        <v>739</v>
-      </c>
-      <c r="B293" t="s">
-        <v>884</v>
-      </c>
-      <c r="C293" t="s">
-        <v>741</v>
-      </c>
-      <c r="D293" t="s">
-        <v>885</v>
-      </c>
-      <c r="E293" t="s">
-        <v>10</v>
-      </c>
-      <c r="F293" t="s">
-        <v>276</v>
-      </c>
-      <c r="G293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A294" t="s">
-        <v>886</v>
-      </c>
-      <c r="B294" t="s">
-        <v>887</v>
-      </c>
-      <c r="C294" t="s">
-        <v>888</v>
-      </c>
-      <c r="D294" t="s">
-        <v>889</v>
-      </c>
-      <c r="E294" t="s">
-        <v>10</v>
-      </c>
-      <c r="F294" t="s">
-        <v>276</v>
-      </c>
-      <c r="G294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A295" t="s">
-        <v>539</v>
-      </c>
-      <c r="B295" t="s">
-        <v>890</v>
-      </c>
-      <c r="C295" t="s">
-        <v>541</v>
-      </c>
-      <c r="D295" t="s">
-        <v>891</v>
-      </c>
-      <c r="E295" t="s">
-        <v>10</v>
-      </c>
-      <c r="F295" t="s">
-        <v>276</v>
-      </c>
-      <c r="G295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A296" t="s">
-        <v>892</v>
-      </c>
-      <c r="B296" t="s">
-        <v>893</v>
-      </c>
-      <c r="C296" t="s">
-        <v>894</v>
-      </c>
-      <c r="D296" t="s">
-        <v>895</v>
-      </c>
-      <c r="E296" t="s">
-        <v>10</v>
-      </c>
-      <c r="F296" t="s">
-        <v>276</v>
-      </c>
-      <c r="G296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A297" t="s">
-        <v>896</v>
-      </c>
-      <c r="B297" t="s">
-        <v>897</v>
-      </c>
-      <c r="C297" t="s">
-        <v>898</v>
-      </c>
-      <c r="D297" t="s">
-        <v>899</v>
-      </c>
-      <c r="E297" t="s">
-        <v>10</v>
-      </c>
-      <c r="F297" t="s">
-        <v>276</v>
-      </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A298" t="s">
-        <v>547</v>
-      </c>
-      <c r="B298" t="s">
-        <v>315</v>
-      </c>
-      <c r="C298" t="s">
-        <v>548</v>
-      </c>
-      <c r="D298" t="s">
-        <v>316</v>
-      </c>
-      <c r="E298" t="s">
-        <v>10</v>
-      </c>
-      <c r="F298" t="s">
-        <v>276</v>
-      </c>
-      <c r="G298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A299" t="s">
-        <v>551</v>
-      </c>
-      <c r="B299" t="s">
-        <v>900</v>
-      </c>
-      <c r="C299" t="s">
-        <v>553</v>
-      </c>
-      <c r="D299" t="s">
-        <v>901</v>
-      </c>
-      <c r="E299" t="s">
-        <v>10</v>
-      </c>
-      <c r="F299" t="s">
-        <v>276</v>
-      </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" t="s">
-        <v>902</v>
-      </c>
-      <c r="B300" t="s">
-        <v>903</v>
-      </c>
-      <c r="C300" t="s">
-        <v>904</v>
-      </c>
-      <c r="D300" t="s">
-        <v>905</v>
-      </c>
-      <c r="E300" t="s">
-        <v>10</v>
-      </c>
-      <c r="F300" t="s">
-        <v>276</v>
-      </c>
-      <c r="G300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A301" t="s">
-        <v>906</v>
-      </c>
-      <c r="B301" t="s">
-        <v>907</v>
-      </c>
-      <c r="C301" t="s">
-        <v>908</v>
-      </c>
-      <c r="D301" t="s">
-        <v>909</v>
-      </c>
-      <c r="E301" t="s">
-        <v>10</v>
-      </c>
-      <c r="F301" t="s">
-        <v>276</v>
-      </c>
-      <c r="G301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A302" t="s">
-        <v>556</v>
-      </c>
-      <c r="B302" t="s">
-        <v>910</v>
-      </c>
-      <c r="C302" t="s">
-        <v>558</v>
-      </c>
-      <c r="D302" t="s">
-        <v>911</v>
-      </c>
-      <c r="E302" t="s">
-        <v>10</v>
-      </c>
-      <c r="F302" t="s">
-        <v>276</v>
-      </c>
-      <c r="G302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A303" t="s">
-        <v>568</v>
-      </c>
-      <c r="B303" t="s">
-        <v>912</v>
-      </c>
-      <c r="C303" t="s">
-        <v>570</v>
-      </c>
-      <c r="D303" t="s">
-        <v>913</v>
-      </c>
-      <c r="E303" t="s">
-        <v>10</v>
-      </c>
-      <c r="F303" t="s">
-        <v>276</v>
-      </c>
-      <c r="G303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A304" t="s">
-        <v>914</v>
-      </c>
-      <c r="B304" t="s">
-        <v>915</v>
-      </c>
-      <c r="C304" t="s">
-        <v>916</v>
-      </c>
-      <c r="D304" t="s">
-        <v>917</v>
-      </c>
-      <c r="E304" t="s">
-        <v>10</v>
-      </c>
-      <c r="F304" t="s">
-        <v>276</v>
-      </c>
-      <c r="G304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A305" t="s">
-        <v>760</v>
-      </c>
-      <c r="B305" t="s">
-        <v>918</v>
-      </c>
-      <c r="C305" t="s">
-        <v>762</v>
-      </c>
-      <c r="D305" t="s">
-        <v>919</v>
-      </c>
-      <c r="E305" t="s">
-        <v>10</v>
-      </c>
-      <c r="F305" t="s">
-        <v>276</v>
-      </c>
-      <c r="G305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A306" t="s">
-        <v>920</v>
-      </c>
-      <c r="B306" t="s">
-        <v>921</v>
-      </c>
-      <c r="C306" t="s">
-        <v>922</v>
-      </c>
-      <c r="D306" t="s">
-        <v>922</v>
-      </c>
-      <c r="E306" t="s">
-        <v>10</v>
-      </c>
-      <c r="F306" t="s">
-        <v>276</v>
-      </c>
-      <c r="G306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A307" t="s">
-        <v>923</v>
-      </c>
-      <c r="B307" t="s">
-        <v>924</v>
-      </c>
-      <c r="C307" t="s">
-        <v>925</v>
-      </c>
-      <c r="D307" t="s">
-        <v>926</v>
-      </c>
-      <c r="E307" t="s">
-        <v>10</v>
-      </c>
-      <c r="F307" t="s">
-        <v>276</v>
-      </c>
-      <c r="G307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A308" t="s">
-        <v>425</v>
-      </c>
-      <c r="B308" t="s">
-        <v>927</v>
-      </c>
-      <c r="C308" t="s">
-        <v>427</v>
-      </c>
-      <c r="D308" t="s">
-        <v>928</v>
-      </c>
-      <c r="E308" t="s">
-        <v>10</v>
-      </c>
-      <c r="F308" t="s">
-        <v>11</v>
-      </c>
-      <c r="G308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A309" t="s">
-        <v>448</v>
-      </c>
-      <c r="B309" t="s">
-        <v>929</v>
-      </c>
-      <c r="C309" t="s">
-        <v>450</v>
-      </c>
-      <c r="D309" t="s">
-        <v>930</v>
-      </c>
-      <c r="E309" t="s">
-        <v>10</v>
-      </c>
-      <c r="F309" t="s">
-        <v>11</v>
-      </c>
-      <c r="G309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A310" t="s">
-        <v>478</v>
-      </c>
-      <c r="B310" t="s">
-        <v>931</v>
-      </c>
-      <c r="C310" t="s">
-        <v>480</v>
-      </c>
-      <c r="D310" t="s">
-        <v>480</v>
-      </c>
-      <c r="E310" t="s">
-        <v>10</v>
-      </c>
-      <c r="F310" t="s">
-        <v>11</v>
-      </c>
-      <c r="G310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A311" t="s">
-        <v>851</v>
-      </c>
-      <c r="B311" t="s">
-        <v>374</v>
-      </c>
-      <c r="C311" t="s">
-        <v>852</v>
-      </c>
-      <c r="D311" t="s">
-        <v>932</v>
-      </c>
-      <c r="E311" t="s">
-        <v>10</v>
-      </c>
-      <c r="F311" t="s">
-        <v>11</v>
-      </c>
-      <c r="G311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A312" t="s">
-        <v>933</v>
-      </c>
-      <c r="B312" t="s">
-        <v>934</v>
-      </c>
-      <c r="C312" t="s">
-        <v>935</v>
-      </c>
-      <c r="D312" t="s">
-        <v>935</v>
-      </c>
-      <c r="E312" t="s">
-        <v>10</v>
-      </c>
-      <c r="F312" t="s">
-        <v>11</v>
-      </c>
-      <c r="G312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A313" t="s">
-        <v>936</v>
-      </c>
-      <c r="B313" t="s">
-        <v>937</v>
-      </c>
-      <c r="C313" t="s">
-        <v>938</v>
-      </c>
-      <c r="D313" t="s">
-        <v>938</v>
-      </c>
-      <c r="E313" t="s">
-        <v>10</v>
-      </c>
-      <c r="F313" t="s">
-        <v>11</v>
-      </c>
-      <c r="G313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A314" t="s">
-        <v>487</v>
-      </c>
-      <c r="B314" t="s">
-        <v>939</v>
-      </c>
-      <c r="C314" t="s">
-        <v>489</v>
-      </c>
-      <c r="D314" t="s">
-        <v>940</v>
-      </c>
-      <c r="E314" t="s">
-        <v>10</v>
-      </c>
-      <c r="F314" t="s">
-        <v>11</v>
-      </c>
-      <c r="G314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A315" t="s">
-        <v>520</v>
-      </c>
-      <c r="B315" t="s">
-        <v>941</v>
-      </c>
-      <c r="C315" t="s">
-        <v>522</v>
-      </c>
-      <c r="D315" t="s">
-        <v>522</v>
-      </c>
-      <c r="E315" t="s">
-        <v>10</v>
-      </c>
-      <c r="F315" t="s">
-        <v>11</v>
-      </c>
-      <c r="G315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A316" t="s">
-        <v>572</v>
-      </c>
-      <c r="B316" t="s">
-        <v>942</v>
-      </c>
-      <c r="C316" t="s">
-        <v>574</v>
-      </c>
-      <c r="D316" t="s">
-        <v>574</v>
-      </c>
-      <c r="E316" t="s">
-        <v>10</v>
-      </c>
-      <c r="F316" t="s">
-        <v>11</v>
-      </c>
-      <c r="G316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A317" t="s">
-        <v>943</v>
-      </c>
-      <c r="B317" t="s">
-        <v>944</v>
-      </c>
-      <c r="C317" t="s">
-        <v>945</v>
-      </c>
-      <c r="D317" t="s">
-        <v>946</v>
-      </c>
-      <c r="E317" t="s">
-        <v>10</v>
-      </c>
-      <c r="F317" t="s">
-        <v>276</v>
-      </c>
-      <c r="G317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A318" t="s">
-        <v>678</v>
-      </c>
-      <c r="B318" t="s">
-        <v>947</v>
-      </c>
-      <c r="C318" t="s">
-        <v>680</v>
-      </c>
-      <c r="D318" t="s">
-        <v>948</v>
-      </c>
-      <c r="E318" t="s">
-        <v>10</v>
-      </c>
-      <c r="F318" t="s">
-        <v>276</v>
-      </c>
-      <c r="G318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A319" t="s">
-        <v>949</v>
-      </c>
-      <c r="B319" t="s">
-        <v>950</v>
-      </c>
-      <c r="C319" t="s">
-        <v>951</v>
-      </c>
-      <c r="D319" t="s">
-        <v>952</v>
-      </c>
-      <c r="E319" t="s">
-        <v>10</v>
-      </c>
-      <c r="F319" t="s">
-        <v>276</v>
-      </c>
-      <c r="G319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A320" t="s">
-        <v>953</v>
-      </c>
-      <c r="B320" t="s">
-        <v>954</v>
-      </c>
-      <c r="C320" t="s">
-        <v>955</v>
-      </c>
-      <c r="D320" t="s">
-        <v>956</v>
-      </c>
-      <c r="E320" t="s">
-        <v>10</v>
-      </c>
-      <c r="F320" t="s">
-        <v>276</v>
-      </c>
-      <c r="G320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A321" t="s">
-        <v>957</v>
-      </c>
-      <c r="B321" t="s">
-        <v>958</v>
-      </c>
-      <c r="C321" t="s">
-        <v>959</v>
-      </c>
-      <c r="D321" t="s">
-        <v>960</v>
-      </c>
-      <c r="E321" t="s">
-        <v>10</v>
-      </c>
-      <c r="F321" t="s">
-        <v>276</v>
-      </c>
-      <c r="G321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A322" t="s">
-        <v>961</v>
-      </c>
-      <c r="B322" t="s">
-        <v>962</v>
-      </c>
-      <c r="C322" t="s">
-        <v>963</v>
-      </c>
-      <c r="D322" t="s">
-        <v>964</v>
-      </c>
-      <c r="E322" t="s">
-        <v>10</v>
-      </c>
-      <c r="F322" t="s">
-        <v>276</v>
-      </c>
-      <c r="G322">
         <v>0</v>
       </c>
     </row>
